--- a/Example for Boxplots.xlsx
+++ b/Example for Boxplots.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="Y:\My Drive\Code\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C336B0C3-070F-45A5-99AC-3D8116C8809A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A77EA2B4-93FD-4FDC-8D56-3F02E1FF784C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="22920" windowHeight="12255" activeTab="1" xr2:uid="{D4A46A4F-EA7B-486E-9479-7730BC5EFC35}"/>
   </bookViews>
@@ -56,32 +56,25 @@
       </extLst>
     </bk>
   </futureMetadata>
-  <futureMetadata name="XLRICHVALUE" count="4">
+  <futureMetadata name="XLRICHVALUE" count="3">
     <bk>
       <extLst>
         <ext uri="{3e2802c4-a4d2-4d8b-9148-e3be6c30e623}">
-          <xlrd:rvb i="0"/>
+          <xlrd:rvb i="2"/>
         </ext>
       </extLst>
     </bk>
     <bk>
       <extLst>
         <ext uri="{3e2802c4-a4d2-4d8b-9148-e3be6c30e623}">
-          <xlrd:rvb i="3"/>
+          <xlrd:rvb i="4"/>
         </ext>
       </extLst>
     </bk>
     <bk>
       <extLst>
         <ext uri="{3e2802c4-a4d2-4d8b-9148-e3be6c30e623}">
-          <xlrd:rvb i="5"/>
-        </ext>
-      </extLst>
-    </bk>
-    <bk>
-      <extLst>
-        <ext uri="{3e2802c4-a4d2-4d8b-9148-e3be6c30e623}">
-          <xlrd:rvb i="9"/>
+          <xlrd:rvb i="8"/>
         </ext>
       </extLst>
     </bk>
@@ -91,7 +84,7 @@
       <rc t="1" v="0"/>
     </bk>
   </cellMetadata>
-  <valueMetadata count="4">
+  <valueMetadata count="3">
     <bk>
       <rc t="2" v="0"/>
     </bk>
@@ -100,9 +93,6 @@
     </bk>
     <bk>
       <rc t="2" v="2"/>
-    </bk>
-    <bk>
-      <rc t="2" v="3"/>
     </bk>
   </valueMetadata>
 </metadata>
@@ -126,28 +116,6 @@
     </initialization>
   </environmentDefinition>
   <pythonScripts>
-    <pythonScript>
-      <code xml:space="preserve">import openpyxl
-import pandas as pd
-import matplotlib.pyplot as plt
-# Load the workbook and select the active worksheet
-workbook = openpyxl.'Example for Boxplots.xlsx'('your_excel_file.xlsx')
-sheet = workbook.active
-# Read data from columns A and B
-data = {
-    'A': [cell.value for cell in sheet['A'][1:]],  # Skip the header
-    'B': [cell.value for cell in sheet['B'][1:]]   # Skip the header
-}
-# Convert to DataFrame
-df = pd.DataFrame(data)
-# Create a box plot
-plt.figure(figsize=(10, 6))
-df.boxplot(column=['A', 'B'])
-plt.title('Box Plot of Columns A and B')
-plt.ylabel('Values')
-plt.show()
-</code>
-    </pythonScript>
     <pythonScript>
       <code>import pandas as pd
 import matplotlib as plt
@@ -1027,16 +995,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>130175</xdr:colOff>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>377825</xdr:colOff>
       <xdr:row>23</xdr:row>
-      <xdr:rowOff>123825</xdr:rowOff>
+      <xdr:rowOff>57150</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>1809749</xdr:colOff>
-      <xdr:row>44</xdr:row>
-      <xdr:rowOff>47624</xdr:rowOff>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>3238499</xdr:colOff>
+      <xdr:row>43</xdr:row>
+      <xdr:rowOff>171449</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -1064,7 +1032,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="5921375" y="4505325"/>
+          <a:off x="3797300" y="4438650"/>
           <a:ext cx="5232399" cy="3924299"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -1125,37 +1093,37 @@
     <v t="s">Income</v>
     <v>0</v>
     <v t="s">Masters Grad</v>
-    <v>165133.70482697827</v>
+    <v>190662.24716849695</v>
     <v>1</v>
     <v t="s">College Grad</v>
-    <v>102927.76893534506</v>
+    <v>63247.059186030354</v>
     <v>2</v>
     <v t="s">HS Grad</v>
-    <v>153976.66717111383</v>
+    <v>90623.720464182668</v>
     <v>3</v>
     <v t="s">Masters Grad</v>
-    <v>140916.15363083893</v>
+    <v>42553.184638763691</v>
     <v>4</v>
     <v t="s">College Grad</v>
-    <v>95032.600934397313</v>
+    <v>161483.24914861401</v>
     <v t="s">...</v>
     <v t="s">...</v>
     <v t="s">...</v>
     <v>97</v>
     <v t="s">College Grad</v>
-    <v>31887.283203911415</v>
+    <v>46222.868486788313</v>
     <v>98</v>
     <v t="s">HS Grad</v>
-    <v>34238.937040372854</v>
+    <v>71883.261252545024</v>
     <v>99</v>
     <v t="s">Masters Grad</v>
-    <v>212137.62305641163</v>
+    <v>134685.32190138748</v>
     <v>100</v>
     <v t="s">College Grad</v>
-    <v>80885.617820682208</v>
+    <v>51773.777060828914</v>
     <v>101</v>
     <v t="s">HS Grad</v>
-    <v>111044.49273361804</v>
+    <v>113443.47361476079</v>
   </a>
   <a r="2">
     <v>1280</v>
@@ -1165,80 +1133,66 @@
 </file>
 
 <file path=xl/richData/rdrichvalue.xml><?xml version="1.0" encoding="utf-8"?>
-<rvData xmlns="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata" count="10">
+<rvData xmlns="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata" count="9">
   <rv s="0">
-    <v>adeb8bbbb5b6410daa42430a3206cef6</v>
-    <v>invalid syntax (line 6)</v>
-    <v>SyntaxError</v>
-    <v>18</v>
-    <v>1</v>
+    <v>0</v>
   </rv>
   <rv s="1">
+    <v>DataFrame</v>
+    <v>1</v>
     <v>0</v>
   </rv>
   <rv s="2">
-    <v>DataFrame</v>
-    <v>1</v>
-    <v>1</v>
-  </rv>
-  <rv s="3">
     <v>&lt;class 'pandas.core.frame.DataFrame'&gt;</v>
     <v>DataFrame</v>
     <v xml:space="preserve">        Education         Income
-0    Masters Grad  165133.704827
-1    College Grad  102927.768935
-2         HS Grad  153976.667171
-3    Masters Grad  140916.153631
-4    College Grad   95032.600934
+0    Masters Grad  190662.247168
+1    College Grad   63247.059186
+2         HS Grad   90623.720464
+3    Masters Grad   42553.184639
+4    College Grad  161483.249149
 ..            ...            ...
-97   College Grad   3...</v>
-    <v>2</v>
+97   College Grad   4...</v>
+    <v>1</v>
     <v>2</v>
   </rv>
-  <rv s="4">
+  <rv s="3">
     <fb>0</fb>
     <v>3</v>
   </rv>
-  <rv s="3">
+  <rv s="2">
     <fb>0</fb>
     <v>&lt;class 'NoneType'&gt;</v>
     <v>NoneType</v>
     <v>None</v>
-    <v>4</v>
+    <v>3</v>
     <v>2</v>
   </rv>
-  <rv s="5">
+  <rv s="4">
     <v>0</v>
     <v>9</v>
   </rv>
-  <rv s="1">
+  <rv s="0">
     <v>1</v>
   </rv>
-  <rv s="6">
+  <rv s="5">
     <v>Image</v>
     <v>4</v>
+    <v>5</v>
     <v>6</v>
-    <v>7</v>
   </rv>
-  <rv s="3">
+  <rv s="2">
     <v>&lt;class 'PIL.PngImagePlugin.PngImageFile'&gt;</v>
     <v>PngImageFile</v>
-    <v>&lt;PIL.PngImagePlugin.PngImageFile image mode=RGBA size=1280x960 at 0x7F024EBC59D0&gt;</v>
-    <v>8</v>
+    <v>&lt;PIL.PngImagePlugin.PngImageFile image mode=RGBA size=1280x960 at 0x7FB02D5594F0&gt;</v>
+    <v>7</v>
     <v>2</v>
   </rv>
 </rvData>
 </file>
 
 <file path=xl/richData/rdrichvaluestructure.xml><?xml version="1.0" encoding="utf-8"?>
-<rvStructures xmlns="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata" count="7">
-  <s t="_error">
-    <k n="correlationId" t="s"/>
-    <k n="errorMessage" t="s"/>
-    <k n="errorName" t="s"/>
-    <k n="errorType" t="i"/>
-    <k n="subType" t="i"/>
-  </s>
+<rvStructures xmlns="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata" count="6">
   <s t="_array">
     <k n="array" t="a"/>
   </s>
@@ -1669,7 +1623,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D74D0C90-C1E0-4EF8-A366-6E4B1BC47C58}">
-  <dimension ref="A1:J100"/>
+  <dimension ref="A1:H100"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="J2" sqref="J2"/>
@@ -1686,7 +1640,7 @@
     <col min="12" max="12" width="12.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1706,17 +1660,17 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>1</v>
       </c>
       <c r="B2" s="1">
         <f t="shared" ref="B2:B33" ca="1" si="0">IF(NORMINV(C2,(VLOOKUP(A2,$F$2:$H$4,2, FALSE)),VLOOKUP(A2,$F$2:$H$4,3, FALSE))&lt;=0,0,NORMINV(C2,(VLOOKUP(A2,$F$2:$H$4,2, FALSE)),VLOOKUP(A2,$F$2:$H$4,3, FALSE)))</f>
-        <v>228061.37958291429</v>
+        <v>118540.98802920338</v>
       </c>
       <c r="C2">
         <f ca="1">RAND()</f>
-        <v>0.97507376021071812</v>
+        <v>0.40936441527004963</v>
       </c>
       <c r="F2" t="s">
         <v>1</v>
@@ -1727,22 +1681,18 @@
       <c r="H2" s="1">
         <v>50000</v>
       </c>
-      <c r="J2" t="e" cm="1" vm="1">
-        <f t="array" ref="J2">_xlfn._xlws.PY(0,1)</f>
-        <v>#VALUE!</v>
-      </c>
-    </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>2</v>
       </c>
       <c r="B3" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>74462.134044281353</v>
+        <v>100141.32634838394</v>
       </c>
       <c r="C3">
         <f t="shared" ref="C3:C66" ca="1" si="1">RAND()</f>
-        <v>0.34884276413808313</v>
+        <v>0.60007187948724572</v>
       </c>
       <c r="F3" t="s">
         <v>2</v>
@@ -1754,17 +1704,17 @@
         <v>40000</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>3</v>
       </c>
       <c r="B4" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>91932.323702752677</v>
+        <v>87175.531523237965</v>
       </c>
       <c r="C4">
         <f t="shared" ca="1" si="1"/>
-        <v>0.66068869829031196</v>
+        <v>0.63350919452057031</v>
       </c>
       <c r="F4" t="s">
         <v>3</v>
@@ -1776,160 +1726,160 @@
         <v>65000</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>1</v>
       </c>
       <c r="B5" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>132109.13011394365</v>
+        <v>182342.37071791757</v>
       </c>
       <c r="C5">
         <f t="shared" ca="1" si="1"/>
-        <v>0.51682343420739552</v>
-      </c>
-    </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+        <v>0.85241502087227916</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>2</v>
       </c>
       <c r="B6" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>48915.358854199098</v>
+        <v>56285.286456611757</v>
       </c>
       <c r="C6">
         <f t="shared" ca="1" si="1"/>
-        <v>0.15218291598988531</v>
-      </c>
-    </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+        <v>0.19965118117426739</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>3</v>
       </c>
       <c r="B7" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>27403.788111226546</v>
+        <v>66546.44905550986</v>
       </c>
       <c r="C7">
         <f t="shared" ca="1" si="1"/>
-        <v>0.2814959468117616</v>
-      </c>
-    </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+        <v>0.50949054946970529</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>1</v>
       </c>
       <c r="B8" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>125392.55441152638</v>
+        <v>122066.25722963011</v>
       </c>
       <c r="C8">
         <f t="shared" ca="1" si="1"/>
-        <v>0.46328986388103022</v>
-      </c>
-    </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+        <v>0.43696252482011577</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>2</v>
       </c>
       <c r="B9" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>89735.589511867307</v>
+        <v>95524.970864896619</v>
       </c>
       <c r="C9">
         <f t="shared" ca="1" si="1"/>
-        <v>0.49736290612745626</v>
-      </c>
-    </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+        <v>0.55492889817578717</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>3</v>
       </c>
       <c r="B10" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>0</v>
+        <v>82721.290345137895</v>
       </c>
       <c r="C10">
         <f t="shared" ca="1" si="1"/>
-        <v>5.2263772056003188E-2</v>
-      </c>
-    </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
+        <v>0.607433188411725</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>1</v>
       </c>
       <c r="B11" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>205663.99121329677</v>
+        <v>150926.52137533546</v>
       </c>
       <c r="C11">
         <f t="shared" ca="1" si="1"/>
-        <v>0.93489570233611119</v>
-      </c>
-    </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
+        <v>0.66222032767866157</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>2</v>
       </c>
       <c r="B12" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>98860.817948591764</v>
+        <v>133338.85490519507</v>
       </c>
       <c r="C12">
         <f t="shared" ca="1" si="1"/>
-        <v>0.58765639185277874</v>
-      </c>
-    </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
+        <v>0.8607003745759475</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>3</v>
       </c>
       <c r="B13" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>10624.830525246252</v>
+        <v>18259.684264394346</v>
       </c>
       <c r="C13">
         <f t="shared" ca="1" si="1"/>
-        <v>0.20142529134825582</v>
-      </c>
-    </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
+        <v>0.23604526621663047</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>1</v>
       </c>
       <c r="B14" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>150119.01313234249</v>
+        <v>114885.1083878809</v>
       </c>
       <c r="C14">
         <f t="shared" ca="1" si="1"/>
-        <v>0.65629790327653925</v>
-      </c>
-    </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
+        <v>0.38121251535427947</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>2</v>
       </c>
       <c r="B15" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>58677.63083477749</v>
+        <v>89698.97280335032</v>
       </c>
       <c r="C15">
         <f t="shared" ca="1" si="1"/>
-        <v>0.21679616581614081</v>
-      </c>
-    </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
+        <v>0.49699771643215429</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>3</v>
       </c>
       <c r="B16" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>46999.776258345388</v>
+        <v>84697.537376372755</v>
       </c>
       <c r="C16">
         <f t="shared" ca="1" si="1"/>
-        <v>0.39091826465510215</v>
+        <v>0.61906994372116564</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.25">
@@ -1938,11 +1888,11 @@
       </c>
       <c r="B17" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>159409.19548989998</v>
+        <v>144851.89233973753</v>
       </c>
       <c r="C17">
         <f t="shared" ca="1" si="1"/>
-        <v>0.72179557190732513</v>
+        <v>0.6167811925888077</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.25">
@@ -1951,11 +1901,11 @@
       </c>
       <c r="B18" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>0</v>
+        <v>94301.832143950247</v>
       </c>
       <c r="C18">
         <f t="shared" ca="1" si="1"/>
-        <v>7.176285246524694E-3</v>
+        <v>0.54282200500654876</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.25">
@@ -1964,11 +1914,11 @@
       </c>
       <c r="B19" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>37226.373926336288</v>
+        <v>71061.297852218224</v>
       </c>
       <c r="C19">
         <f t="shared" ca="1" si="1"/>
-        <v>0.33458531222325572</v>
+        <v>0.53714781584995919</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.25">
@@ -1977,11 +1927,11 @@
       </c>
       <c r="B20" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>182956.70265103015</v>
+        <v>97949.512255894282</v>
       </c>
       <c r="C20">
         <f t="shared" ca="1" si="1"/>
-        <v>0.85523063328912374</v>
+        <v>0.26075817257684664</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.25">
@@ -1990,11 +1940,11 @@
       </c>
       <c r="B21" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>57661.337723989636</v>
+        <v>100789.37721672635</v>
       </c>
       <c r="C21">
         <f t="shared" ca="1" si="1"/>
-        <v>0.20941102533610201</v>
+        <v>0.60631771483460228</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.25">
@@ -2003,11 +1953,11 @@
       </c>
       <c r="B22" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>17445.525927062838</v>
+        <v>81591.955134002856</v>
       </c>
       <c r="C22">
         <f t="shared" ca="1" si="1"/>
-        <v>0.23220414765917263</v>
+        <v>0.60073918146377192</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.25">
@@ -2016,11 +1966,11 @@
       </c>
       <c r="B23" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>141836.67096783486</v>
+        <v>153363.09221807451</v>
       </c>
       <c r="C23">
         <f t="shared" ca="1" si="1"/>
-        <v>0.59356819655935</v>
+        <v>0.67984372423286199</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.25">
@@ -2029,11 +1979,11 @@
       </c>
       <c r="B24" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>83172.191765737574</v>
+        <v>126830.53780094154</v>
       </c>
       <c r="C24">
         <f t="shared" ca="1" si="1"/>
-        <v>0.43223171633846891</v>
+        <v>0.82141302805553917</v>
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.25">
@@ -2042,11 +1992,11 @@
       </c>
       <c r="B25" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>156544.71371930372</v>
+        <v>16844.472058810723</v>
       </c>
       <c r="C25">
         <f t="shared" ca="1" si="1"/>
-        <v>0.92049074213837612</v>
+        <v>0.22939090091131198</v>
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.25">
@@ -2055,11 +2005,11 @@
       </c>
       <c r="B26" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>102505.51898492643</v>
+        <v>142568.906720959</v>
       </c>
       <c r="C26">
         <f t="shared" ca="1" si="1"/>
-        <v>0.29119754197665937</v>
+        <v>0.59923911436775101</v>
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.25">
@@ -2068,11 +2018,11 @@
       </c>
       <c r="B27" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>138974.14106557233</v>
+        <v>82193.002057662932</v>
       </c>
       <c r="C27">
         <f t="shared" ca="1" si="1"/>
-        <v>0.88959055362506623</v>
+        <v>0.42262799503292381</v>
       </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.25">
@@ -2081,11 +2031,11 @@
       </c>
       <c r="B28" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>57386.46357492885</v>
+        <v>72093.732125631781</v>
       </c>
       <c r="C28">
         <f t="shared" ca="1" si="1"/>
-        <v>0.45337799158320247</v>
+        <v>0.54345203107338047</v>
       </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.25">
@@ -2094,11 +2044,11 @@
       </c>
       <c r="B29" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>148741.5118612657</v>
+        <v>88991.644273439946</v>
       </c>
       <c r="C29">
         <f t="shared" ca="1" si="1"/>
-        <v>0.64610663751109776</v>
+        <v>0.20606042313217887</v>
       </c>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.25">
@@ -2107,11 +2057,11 @@
       </c>
       <c r="B30" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>116854.81502654651</v>
+        <v>145883.0982132401</v>
       </c>
       <c r="C30">
         <f t="shared" ca="1" si="1"/>
-        <v>0.74900769392753741</v>
+        <v>0.91880485975877291</v>
       </c>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.25">
@@ -2120,11 +2070,11 @@
       </c>
       <c r="B31" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>8418.9075599470889</v>
+        <v>57272.79648528203</v>
       </c>
       <c r="C31">
         <f t="shared" ca="1" si="1"/>
-        <v>0.19201952413149725</v>
+        <v>0.45268519211584257</v>
       </c>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.25">
@@ -2133,11 +2083,11 @@
       </c>
       <c r="B32" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>203922.77704725525</v>
+        <v>140259.89564971419</v>
       </c>
       <c r="C32">
         <f t="shared" ca="1" si="1"/>
-        <v>0.93035705567084548</v>
+        <v>0.5812912500288423</v>
       </c>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.25">
@@ -2146,11 +2096,11 @@
       </c>
       <c r="B33" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>86208.244464122283</v>
+        <v>110114.22164515108</v>
       </c>
       <c r="C33">
         <f t="shared" ca="1" si="1"/>
-        <v>0.46223927068283654</v>
+        <v>0.69246707957594</v>
       </c>
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.25">
@@ -2159,11 +2109,11 @@
       </c>
       <c r="B34" s="1">
         <f t="shared" ref="B34:B65" ca="1" si="2">IF(NORMINV(C34,(VLOOKUP(A34,$F$2:$H$4,2, FALSE)),VLOOKUP(A34,$F$2:$H$4,3, FALSE))&lt;=0,0,NORMINV(C34,(VLOOKUP(A34,$F$2:$H$4,2, FALSE)),VLOOKUP(A34,$F$2:$H$4,3, FALSE)))</f>
-        <v>99381.941699023111</v>
+        <v>58082.297380765369</v>
       </c>
       <c r="C34">
         <f t="shared" ca="1" si="1"/>
-        <v>0.70158095522819663</v>
+        <v>0.45762210558757366</v>
       </c>
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.25">
@@ -2172,11 +2122,11 @@
       </c>
       <c r="B35" s="1">
         <f t="shared" ca="1" si="2"/>
-        <v>115250.50554155378</v>
+        <v>143271.80402026387</v>
       </c>
       <c r="C35">
         <f t="shared" ca="1" si="1"/>
-        <v>0.3840008017473584</v>
+        <v>0.6046632277390217</v>
       </c>
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.25">
@@ -2185,11 +2135,11 @@
       </c>
       <c r="B36" s="1">
         <f t="shared" ca="1" si="2"/>
-        <v>198220.64945406618</v>
+        <v>71053.646026367496</v>
       </c>
       <c r="C36">
         <f t="shared" ca="1" si="1"/>
-        <v>0.99659008428425266</v>
+        <v>0.31787160123160407</v>
       </c>
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.25">
@@ -2198,11 +2148,11 @@
       </c>
       <c r="B37" s="1">
         <f t="shared" ca="1" si="2"/>
-        <v>2312.7960424163539</v>
+        <v>0</v>
       </c>
       <c r="C37">
         <f t="shared" ca="1" si="1"/>
-        <v>0.16741806978871809</v>
+        <v>9.7659657232753383E-2</v>
       </c>
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.25">
@@ -2211,11 +2161,11 @@
       </c>
       <c r="B38" s="1">
         <f t="shared" ca="1" si="2"/>
-        <v>153441.75413203836</v>
+        <v>151330.32099688146</v>
       </c>
       <c r="C38">
         <f t="shared" ca="1" si="1"/>
-        <v>0.68040623938820033</v>
+        <v>0.66516698955217302</v>
       </c>
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.25">
@@ -2224,11 +2174,11 @@
       </c>
       <c r="B39" s="1">
         <f t="shared" ca="1" si="2"/>
-        <v>133653.4550996121</v>
+        <v>65044.501499873106</v>
       </c>
       <c r="C39">
         <f t="shared" ca="1" si="1"/>
-        <v>0.86243755177725789</v>
+        <v>0.26635074731585806</v>
       </c>
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.25">
@@ -2237,11 +2187,11 @@
       </c>
       <c r="B40" s="1">
         <f t="shared" ca="1" si="2"/>
-        <v>72780.720609919474</v>
+        <v>53467.586708498391</v>
       </c>
       <c r="C40">
         <f t="shared" ca="1" si="1"/>
-        <v>0.5476409441637794</v>
+        <v>0.42958856491757003</v>
       </c>
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.25">
@@ -2250,11 +2200,11 @@
       </c>
       <c r="B41" s="1">
         <f t="shared" ca="1" si="2"/>
-        <v>173199.16471191973</v>
+        <v>40793.280758112116</v>
       </c>
       <c r="C41">
         <f t="shared" ca="1" si="1"/>
-        <v>0.80620146612625077</v>
+        <v>3.720091557975469E-2</v>
       </c>
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.25">
@@ -2263,11 +2213,11 @@
       </c>
       <c r="B42" s="1">
         <f t="shared" ca="1" si="2"/>
-        <v>81508.145316451599</v>
+        <v>91366.748914633965</v>
       </c>
       <c r="C42">
         <f t="shared" ca="1" si="1"/>
-        <v>0.41593791474149222</v>
+        <v>0.51362869624609064</v>
       </c>
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.25">
@@ -2276,11 +2226,11 @@
       </c>
       <c r="B43" s="1">
         <f t="shared" ca="1" si="2"/>
-        <v>52414.005464100403</v>
+        <v>76470.601068872405</v>
       </c>
       <c r="C43">
         <f t="shared" ca="1" si="1"/>
-        <v>0.42323253479789269</v>
+        <v>0.57003795093094545</v>
       </c>
     </row>
     <row r="44" spans="1:3" x14ac:dyDescent="0.25">
@@ -2289,11 +2239,11 @@
       </c>
       <c r="B44" s="1">
         <f t="shared" ca="1" si="2"/>
-        <v>105898.92775815036</v>
+        <v>73892.044428330701</v>
       </c>
       <c r="C44">
         <f t="shared" ca="1" si="1"/>
-        <v>0.31489535616827924</v>
+        <v>0.13089739715602433</v>
       </c>
     </row>
     <row r="45" spans="1:3" x14ac:dyDescent="0.25">
@@ -2302,11 +2252,11 @@
       </c>
       <c r="B45" s="1">
         <f t="shared" ca="1" si="2"/>
-        <v>133677.36297822656</v>
+        <v>97648.043953603541</v>
       </c>
       <c r="C45">
         <f t="shared" ca="1" si="1"/>
-        <v>0.8625689603854132</v>
+        <v>0.57581597862601241</v>
       </c>
     </row>
     <row r="46" spans="1:3" x14ac:dyDescent="0.25">
@@ -2315,11 +2265,11 @@
       </c>
       <c r="B46" s="1">
         <f t="shared" ca="1" si="2"/>
-        <v>0</v>
+        <v>77288.101710105722</v>
       </c>
       <c r="C46">
         <f t="shared" ca="1" si="1"/>
-        <v>0.12503715379949665</v>
+        <v>0.57497229150305862</v>
       </c>
     </row>
     <row r="47" spans="1:3" x14ac:dyDescent="0.25">
@@ -2328,11 +2278,11 @@
       </c>
       <c r="B47" s="1">
         <f t="shared" ca="1" si="2"/>
-        <v>165231.70304148018</v>
+        <v>114005.40688570627</v>
       </c>
       <c r="C47">
         <f t="shared" ca="1" si="1"/>
-        <v>0.75948100194156654</v>
+        <v>0.37452515348045723</v>
       </c>
     </row>
     <row r="48" spans="1:3" x14ac:dyDescent="0.25">
@@ -2341,11 +2291,11 @@
       </c>
       <c r="B48" s="1">
         <f t="shared" ca="1" si="2"/>
-        <v>78928.605771874601</v>
+        <v>141341.8518038544</v>
       </c>
       <c r="C48">
         <f t="shared" ca="1" si="1"/>
-        <v>0.39097265522253377</v>
+        <v>0.90034962440562738</v>
       </c>
     </row>
     <row r="49" spans="1:3" x14ac:dyDescent="0.25">
@@ -2354,11 +2304,11 @@
       </c>
       <c r="B49" s="1">
         <f t="shared" ca="1" si="2"/>
-        <v>44437.220569153455</v>
+        <v>18722.118774465234</v>
       </c>
       <c r="C49">
         <f t="shared" ca="1" si="1"/>
-        <v>0.37586826006100382</v>
+        <v>0.23824248065535225</v>
       </c>
     </row>
     <row r="50" spans="1:3" x14ac:dyDescent="0.25">
@@ -2367,11 +2317,11 @@
       </c>
       <c r="B50" s="1">
         <f t="shared" ca="1" si="2"/>
-        <v>80251.231033294389</v>
+        <v>108883.97623516739</v>
       </c>
       <c r="C50">
         <f t="shared" ca="1" si="1"/>
-        <v>0.159874119516347</v>
+        <v>0.33639555749262928</v>
       </c>
     </row>
     <row r="51" spans="1:3" x14ac:dyDescent="0.25">
@@ -2380,11 +2330,11 @@
       </c>
       <c r="B51" s="1">
         <f t="shared" ca="1" si="2"/>
-        <v>110947.09672169703</v>
+        <v>73952.847823454649</v>
       </c>
       <c r="C51">
         <f t="shared" ca="1" si="1"/>
-        <v>0.69974853767417045</v>
+        <v>0.34414424235545005</v>
       </c>
     </row>
     <row r="52" spans="1:3" x14ac:dyDescent="0.25">
@@ -2393,11 +2343,11 @@
       </c>
       <c r="B52" s="1">
         <f t="shared" ca="1" si="2"/>
-        <v>634.09988140333007</v>
+        <v>116679.70949742565</v>
       </c>
       <c r="C52">
         <f t="shared" ca="1" si="1"/>
-        <v>0.16102728466399807</v>
+        <v>0.78671432143474851</v>
       </c>
     </row>
     <row r="53" spans="1:3" x14ac:dyDescent="0.25">
@@ -2406,11 +2356,11 @@
       </c>
       <c r="B53" s="1">
         <f t="shared" ca="1" si="2"/>
-        <v>185510.04496365692</v>
+        <v>158595.21893612348</v>
       </c>
       <c r="C53">
         <f t="shared" ca="1" si="1"/>
-        <v>0.86654376731913019</v>
+        <v>0.71630662129868061</v>
       </c>
     </row>
     <row r="54" spans="1:3" x14ac:dyDescent="0.25">
@@ -2419,11 +2369,11 @@
       </c>
       <c r="B54" s="1">
         <f t="shared" ca="1" si="2"/>
-        <v>49670.977697196802</v>
+        <v>101359.36618200323</v>
       </c>
       <c r="C54">
         <f t="shared" ca="1" si="1"/>
-        <v>0.15667309555958653</v>
+        <v>0.61178873810330259</v>
       </c>
     </row>
     <row r="55" spans="1:3" x14ac:dyDescent="0.25">
@@ -2432,11 +2382,11 @@
       </c>
       <c r="B55" s="1">
         <f t="shared" ca="1" si="2"/>
-        <v>4668.9774102516676</v>
+        <v>159730.51588313479</v>
       </c>
       <c r="C55">
         <f t="shared" ca="1" si="1"/>
-        <v>0.17665980610329501</v>
+        <v>0.92749597408731099</v>
       </c>
     </row>
     <row r="56" spans="1:3" x14ac:dyDescent="0.25">
@@ -2445,11 +2395,11 @@
       </c>
       <c r="B56" s="1">
         <f t="shared" ca="1" si="2"/>
-        <v>52239.793769975557</v>
+        <v>63667.43717678549</v>
       </c>
       <c r="C56">
         <f t="shared" ca="1" si="1"/>
-        <v>5.9948731151946655E-2</v>
+        <v>9.2312036022842436E-2</v>
       </c>
     </row>
     <row r="57" spans="1:3" x14ac:dyDescent="0.25">
@@ -2458,11 +2408,11 @@
       </c>
       <c r="B57" s="1">
         <f t="shared" ca="1" si="2"/>
-        <v>113348.7095744229</v>
+        <v>72670.398671579256</v>
       </c>
       <c r="C57">
         <f t="shared" ca="1" si="1"/>
-        <v>0.7202948848332148</v>
+        <v>0.33242019904232356</v>
       </c>
     </row>
     <row r="58" spans="1:3" x14ac:dyDescent="0.25">
@@ -2471,11 +2421,11 @@
       </c>
       <c r="B58" s="1">
         <f t="shared" ca="1" si="2"/>
-        <v>0</v>
+        <v>14602.268888144754</v>
       </c>
       <c r="C58">
         <f t="shared" ca="1" si="1"/>
-        <v>0.10576166430702105</v>
+        <v>0.21906652167135721</v>
       </c>
     </row>
     <row r="59" spans="1:3" x14ac:dyDescent="0.25">
@@ -2484,11 +2434,11 @@
       </c>
       <c r="B59" s="1">
         <f t="shared" ca="1" si="2"/>
-        <v>146346.93235653642</v>
+        <v>166660.33502211183</v>
       </c>
       <c r="C59">
         <f t="shared" ca="1" si="1"/>
-        <v>0.6281428551506667</v>
+        <v>0.76828381536610379</v>
       </c>
     </row>
     <row r="60" spans="1:3" x14ac:dyDescent="0.25">
@@ -2497,11 +2447,11 @@
       </c>
       <c r="B60" s="1">
         <f t="shared" ca="1" si="2"/>
-        <v>45008.351143427506</v>
+        <v>96025.198449428921</v>
       </c>
       <c r="C60">
         <f t="shared" ca="1" si="1"/>
-        <v>0.13033875763824343</v>
+        <v>0.55986618729972426</v>
       </c>
     </row>
     <row r="61" spans="1:3" x14ac:dyDescent="0.25">
@@ -2510,11 +2460,11 @@
       </c>
       <c r="B61" s="1">
         <f t="shared" ca="1" si="2"/>
-        <v>45572.266013963803</v>
+        <v>103041.88389342083</v>
       </c>
       <c r="C61">
         <f t="shared" ca="1" si="1"/>
-        <v>0.3825126696322404</v>
+        <v>0.72081346350169218</v>
       </c>
     </row>
     <row r="62" spans="1:3" x14ac:dyDescent="0.25">
@@ -2523,11 +2473,11 @@
       </c>
       <c r="B62" s="1">
         <f t="shared" ca="1" si="2"/>
-        <v>209529.36980489775</v>
+        <v>60596.542503893506</v>
       </c>
       <c r="C62">
         <f t="shared" ca="1" si="1"/>
-        <v>0.94414876858250574</v>
+        <v>8.2557994766906062E-2</v>
       </c>
     </row>
     <row r="63" spans="1:3" x14ac:dyDescent="0.25">
@@ -2536,11 +2486,11 @@
       </c>
       <c r="B63" s="1">
         <f t="shared" ca="1" si="2"/>
-        <v>142106.09488164651</v>
+        <v>86305.992590268521</v>
       </c>
       <c r="C63">
         <f t="shared" ca="1" si="1"/>
-        <v>0.90365326541064861</v>
+        <v>0.46320990831745112</v>
       </c>
     </row>
     <row r="64" spans="1:3" x14ac:dyDescent="0.25">
@@ -2549,11 +2499,11 @@
       </c>
       <c r="B64" s="1">
         <f t="shared" ca="1" si="2"/>
-        <v>64239.464339064696</v>
+        <v>0</v>
       </c>
       <c r="C64">
         <f t="shared" ca="1" si="1"/>
-        <v>0.49533226295234145</v>
+        <v>1.9663489962230662E-2</v>
       </c>
     </row>
     <row r="65" spans="1:3" x14ac:dyDescent="0.25">
@@ -2562,11 +2512,11 @@
       </c>
       <c r="B65" s="1">
         <f t="shared" ca="1" si="2"/>
-        <v>117595.86820447691</v>
+        <v>131805.74715817694</v>
       </c>
       <c r="C65">
         <f t="shared" ca="1" si="1"/>
-        <v>0.40203523514055572</v>
+        <v>0.51440464641025363</v>
       </c>
     </row>
     <row r="66" spans="1:3" x14ac:dyDescent="0.25">
@@ -2575,11 +2525,11 @@
       </c>
       <c r="B66" s="1">
         <f t="shared" ref="B66:B97" ca="1" si="3">IF(NORMINV(C66,(VLOOKUP(A66,$F$2:$H$4,2, FALSE)),VLOOKUP(A66,$F$2:$H$4,3, FALSE))&lt;=0,0,NORMINV(C66,(VLOOKUP(A66,$F$2:$H$4,2, FALSE)),VLOOKUP(A66,$F$2:$H$4,3, FALSE)))</f>
-        <v>143512.31707484307</v>
+        <v>79789.114745156767</v>
       </c>
       <c r="C66">
         <f t="shared" ca="1" si="1"/>
-        <v>0.90952047139850367</v>
+        <v>0.39925646150053273</v>
       </c>
     </row>
     <row r="67" spans="1:3" x14ac:dyDescent="0.25">
@@ -2588,11 +2538,11 @@
       </c>
       <c r="B67" s="1">
         <f t="shared" ca="1" si="3"/>
-        <v>38665.23555243903</v>
+        <v>116545.76624006634</v>
       </c>
       <c r="C67">
         <f t="shared" ref="C67:C100" ca="1" si="4">RAND()</f>
-        <v>0.34268354600018514</v>
+        <v>0.78611452266019155</v>
       </c>
     </row>
     <row r="68" spans="1:3" x14ac:dyDescent="0.25">
@@ -2601,11 +2551,11 @@
       </c>
       <c r="B68" s="1">
         <f t="shared" ca="1" si="3"/>
-        <v>86453.812529655654</v>
+        <v>232170.32524422384</v>
       </c>
       <c r="C68">
         <f t="shared" ca="1" si="4"/>
-        <v>0.19189789415736513</v>
+        <v>0.97949389296088585</v>
       </c>
     </row>
     <row r="69" spans="1:3" x14ac:dyDescent="0.25">
@@ -2614,11 +2564,11 @@
       </c>
       <c r="B69" s="1">
         <f t="shared" ca="1" si="3"/>
-        <v>81862.496388562839</v>
+        <v>47448.210779300905</v>
       </c>
       <c r="C69">
         <f t="shared" ca="1" si="4"/>
-        <v>0.41939651063115435</v>
+        <v>0.14371084949365143</v>
       </c>
     </row>
     <row r="70" spans="1:3" x14ac:dyDescent="0.25">
@@ -2627,11 +2577,11 @@
       </c>
       <c r="B70" s="1">
         <f t="shared" ca="1" si="3"/>
-        <v>52020.448293617723</v>
+        <v>22664.167532312807</v>
       </c>
       <c r="C70">
         <f t="shared" ca="1" si="4"/>
-        <v>0.42086331221085427</v>
+        <v>0.25741980906822037</v>
       </c>
     </row>
     <row r="71" spans="1:3" x14ac:dyDescent="0.25">
@@ -2640,11 +2590,11 @@
       </c>
       <c r="B71" s="1">
         <f t="shared" ca="1" si="3"/>
-        <v>86285.32508492691</v>
+        <v>89824.0942606678</v>
       </c>
       <c r="C71">
         <f t="shared" ca="1" si="4"/>
-        <v>0.19097921957743125</v>
+        <v>0.21083766542162763</v>
       </c>
     </row>
     <row r="72" spans="1:3" x14ac:dyDescent="0.25">
@@ -2653,11 +2603,11 @@
       </c>
       <c r="B72" s="1">
         <f t="shared" ca="1" si="3"/>
-        <v>160618.80292514944</v>
+        <v>48989.321148655858</v>
       </c>
       <c r="C72">
         <f t="shared" ca="1" si="4"/>
-        <v>0.96125760220432233</v>
+        <v>0.15261861786243269</v>
       </c>
     </row>
     <row r="73" spans="1:3" x14ac:dyDescent="0.25">
@@ -2666,11 +2616,11 @@
       </c>
       <c r="B73" s="1">
         <f t="shared" ca="1" si="3"/>
-        <v>50136.428719421834</v>
+        <v>128467.67832801945</v>
       </c>
       <c r="C73">
         <f t="shared" ca="1" si="4"/>
-        <v>0.40956257952745212</v>
+        <v>0.83557325437480334</v>
       </c>
     </row>
     <row r="74" spans="1:3" x14ac:dyDescent="0.25">
@@ -2679,11 +2629,11 @@
       </c>
       <c r="B74" s="1">
         <f t="shared" ca="1" si="3"/>
-        <v>194084.63427535523</v>
+        <v>51672.06474015089</v>
       </c>
       <c r="C74">
         <f t="shared" ca="1" si="4"/>
-        <v>0.90002476407854937</v>
+        <v>5.8608938283390088E-2</v>
       </c>
     </row>
     <row r="75" spans="1:3" x14ac:dyDescent="0.25">
@@ -2692,11 +2642,11 @@
       </c>
       <c r="B75" s="1">
         <f t="shared" ca="1" si="3"/>
-        <v>38857.804859547527</v>
+        <v>90483.619766937976</v>
       </c>
       <c r="C75">
         <f t="shared" ca="1" si="4"/>
-        <v>0.10052692394187379</v>
+        <v>0.50482329180494423</v>
       </c>
     </row>
     <row r="76" spans="1:3" x14ac:dyDescent="0.25">
@@ -2705,11 +2655,11 @@
       </c>
       <c r="B76" s="1">
         <f t="shared" ca="1" si="3"/>
-        <v>0</v>
+        <v>2483.8289258518635</v>
       </c>
       <c r="C76">
         <f t="shared" ca="1" si="4"/>
-        <v>0.13743224589431136</v>
+        <v>0.16807824264908888</v>
       </c>
     </row>
     <row r="77" spans="1:3" x14ac:dyDescent="0.25">
@@ -2718,11 +2668,11 @@
       </c>
       <c r="B77" s="1">
         <f t="shared" ca="1" si="3"/>
-        <v>201553.12779839541</v>
+        <v>137802.60878422472</v>
       </c>
       <c r="C77">
         <f t="shared" ca="1" si="4"/>
-        <v>0.92379385626537069</v>
+        <v>0.5620040526489527</v>
       </c>
     </row>
     <row r="78" spans="1:3" x14ac:dyDescent="0.25">
@@ -2731,11 +2681,11 @@
       </c>
       <c r="B78" s="1">
         <f t="shared" ca="1" si="3"/>
-        <v>115594.70536922279</v>
+        <v>115762.78895744155</v>
       </c>
       <c r="C78">
         <f t="shared" ca="1" si="4"/>
-        <v>0.73887067136801277</v>
+        <v>0.74023488898820178</v>
       </c>
     </row>
     <row r="79" spans="1:3" x14ac:dyDescent="0.25">
@@ -2744,11 +2694,11 @@
       </c>
       <c r="B79" s="1">
         <f t="shared" ca="1" si="3"/>
-        <v>0</v>
+        <v>105368.888808765</v>
       </c>
       <c r="C79">
         <f t="shared" ca="1" si="4"/>
-        <v>3.2210340629318934E-2</v>
+        <v>0.7327198701899208</v>
       </c>
     </row>
     <row r="80" spans="1:3" x14ac:dyDescent="0.25">
@@ -2757,11 +2707,11 @@
       </c>
       <c r="B80" s="1">
         <f t="shared" ca="1" si="3"/>
-        <v>84876.318356358272</v>
+        <v>139566.51216222229</v>
       </c>
       <c r="C80">
         <f t="shared" ca="1" si="4"/>
-        <v>0.18340266091457769</v>
+        <v>0.57586656596764207</v>
       </c>
     </row>
     <row r="81" spans="1:3" x14ac:dyDescent="0.25">
@@ -2770,11 +2720,11 @@
       </c>
       <c r="B81" s="1">
         <f t="shared" ca="1" si="3"/>
-        <v>113765.59607443586</v>
+        <v>58240.747623382988</v>
       </c>
       <c r="C81">
         <f t="shared" ca="1" si="4"/>
-        <v>0.72379072759855123</v>
+        <v>0.21360315617338399</v>
       </c>
     </row>
     <row r="82" spans="1:3" x14ac:dyDescent="0.25">
@@ -2783,11 +2733,11 @@
       </c>
       <c r="B82" s="1">
         <f t="shared" ca="1" si="3"/>
-        <v>67201.99604004671</v>
+        <v>67900.639162097505</v>
       </c>
       <c r="C82">
         <f t="shared" ca="1" si="4"/>
-        <v>0.51351232803931113</v>
+        <v>0.51779697914063383</v>
       </c>
     </row>
     <row r="83" spans="1:3" x14ac:dyDescent="0.25">
@@ -2796,11 +2746,11 @@
       </c>
       <c r="B83" s="1">
         <f t="shared" ca="1" si="3"/>
-        <v>79871.049188590303</v>
+        <v>223972.72986308829</v>
       </c>
       <c r="C83">
         <f t="shared" ca="1" si="4"/>
-        <v>0.15803201221821184</v>
+        <v>0.96990877629253391</v>
       </c>
     </row>
     <row r="84" spans="1:3" x14ac:dyDescent="0.25">
@@ -2809,11 +2759,11 @@
       </c>
       <c r="B84" s="1">
         <f t="shared" ca="1" si="3"/>
-        <v>53747.27356033562</v>
+        <v>13932.181821742968</v>
       </c>
       <c r="C84">
         <f t="shared" ca="1" si="4"/>
-        <v>0.18238373784543638</v>
+        <v>2.860549023747605E-2</v>
       </c>
     </row>
     <row r="85" spans="1:3" x14ac:dyDescent="0.25">
@@ -2822,11 +2772,11 @@
       </c>
       <c r="B85" s="1">
         <f t="shared" ca="1" si="3"/>
-        <v>0</v>
+        <v>19781.281942165639</v>
       </c>
       <c r="C85">
         <f t="shared" ca="1" si="4"/>
-        <v>1.9136902227415375E-2</v>
+        <v>0.24331694886144473</v>
       </c>
     </row>
     <row r="86" spans="1:3" x14ac:dyDescent="0.25">
@@ -2835,11 +2785,11 @@
       </c>
       <c r="B86" s="1">
         <f t="shared" ca="1" si="3"/>
-        <v>155154.55401211121</v>
+        <v>114643.2755842959</v>
       </c>
       <c r="C86">
         <f t="shared" ca="1" si="4"/>
-        <v>0.692549881175199</v>
+        <v>0.37937050381732673</v>
       </c>
     </row>
     <row r="87" spans="1:3" x14ac:dyDescent="0.25">
@@ -2848,11 +2798,11 @@
       </c>
       <c r="B87" s="1">
         <f t="shared" ca="1" si="3"/>
-        <v>81886.808396820823</v>
+        <v>88024.948644192657</v>
       </c>
       <c r="C87">
         <f t="shared" ca="1" si="4"/>
-        <v>0.41963403637770869</v>
+        <v>0.4803097139067255</v>
       </c>
     </row>
     <row r="88" spans="1:3" x14ac:dyDescent="0.25">
@@ -2865,7 +2815,7 @@
       </c>
       <c r="C88">
         <f t="shared" ca="1" si="4"/>
-        <v>0.10498205775118308</v>
+        <v>3.6633093048571874E-2</v>
       </c>
     </row>
     <row r="89" spans="1:3" x14ac:dyDescent="0.25">
@@ -2874,11 +2824,11 @@
       </c>
       <c r="B89" s="1">
         <f t="shared" ca="1" si="3"/>
-        <v>128948.04765588912</v>
+        <v>92689.622326933168</v>
       </c>
       <c r="C89">
         <f t="shared" ca="1" si="4"/>
-        <v>0.49160725382685311</v>
+        <v>0.22777102296959817</v>
       </c>
     </row>
     <row r="90" spans="1:3" x14ac:dyDescent="0.25">
@@ -2887,11 +2837,11 @@
       </c>
       <c r="B90" s="1">
         <f t="shared" ca="1" si="3"/>
-        <v>53057.074705538929</v>
+        <v>90052.294010636644</v>
       </c>
       <c r="C90">
         <f t="shared" ca="1" si="4"/>
-        <v>0.17785430389783574</v>
+        <v>0.50052155714779678</v>
       </c>
     </row>
     <row r="91" spans="1:3" x14ac:dyDescent="0.25">
@@ -2900,11 +2850,11 @@
       </c>
       <c r="B91" s="1">
         <f t="shared" ca="1" si="3"/>
-        <v>27014.565950559125</v>
+        <v>30030.993526018698</v>
       </c>
       <c r="C91">
         <f t="shared" ca="1" si="4"/>
-        <v>0.27947854167659447</v>
+        <v>0.295293800550955</v>
       </c>
     </row>
     <row r="92" spans="1:3" x14ac:dyDescent="0.25">
@@ -2913,11 +2863,11 @@
       </c>
       <c r="B92" s="1">
         <f t="shared" ca="1" si="3"/>
-        <v>221507.52894531871</v>
+        <v>137568.61708672502</v>
       </c>
       <c r="C92">
         <f t="shared" ca="1" si="4"/>
-        <v>0.96638628725134279</v>
+        <v>0.56015899693350324</v>
       </c>
     </row>
     <row r="93" spans="1:3" x14ac:dyDescent="0.25">
@@ -2926,11 +2876,11 @@
       </c>
       <c r="B93" s="1">
         <f t="shared" ca="1" si="3"/>
-        <v>83581.199783789183</v>
+        <v>96567.915582833593</v>
       </c>
       <c r="C93">
         <f t="shared" ca="1" si="4"/>
-        <v>0.43625542381690752</v>
+        <v>0.56521231878075695</v>
       </c>
     </row>
     <row r="94" spans="1:3" x14ac:dyDescent="0.25">
@@ -2939,11 +2889,11 @@
       </c>
       <c r="B94" s="1">
         <f t="shared" ca="1" si="3"/>
-        <v>88002.725601857688</v>
+        <v>11384.86913921003</v>
       </c>
       <c r="C94">
         <f t="shared" ca="1" si="4"/>
-        <v>0.63828862205852133</v>
+        <v>0.20472889833175245</v>
       </c>
     </row>
     <row r="95" spans="1:3" x14ac:dyDescent="0.25">
@@ -2952,11 +2902,11 @@
       </c>
       <c r="B95" s="1">
         <f t="shared" ca="1" si="3"/>
-        <v>146972.4389603021</v>
+        <v>167476.04099900369</v>
       </c>
       <c r="C95">
         <f t="shared" ca="1" si="4"/>
-        <v>0.63286416148254676</v>
+        <v>0.77322832265535191</v>
       </c>
     </row>
     <row r="96" spans="1:3" x14ac:dyDescent="0.25">
@@ -2965,11 +2915,11 @@
       </c>
       <c r="B96" s="1">
         <f t="shared" ca="1" si="3"/>
-        <v>134188.22050614178</v>
+        <v>106275.58591326384</v>
       </c>
       <c r="C96">
         <f t="shared" ca="1" si="4"/>
-        <v>0.86535639302487366</v>
+        <v>0.65795548020823102</v>
       </c>
     </row>
     <row r="97" spans="1:3" x14ac:dyDescent="0.25">
@@ -2978,11 +2928,11 @@
       </c>
       <c r="B97" s="1">
         <f t="shared" ca="1" si="3"/>
-        <v>83244.843822363808</v>
+        <v>96582.296513546884</v>
       </c>
       <c r="C97">
         <f t="shared" ca="1" si="4"/>
-        <v>0.61052587385803148</v>
+        <v>0.68647440175229113</v>
       </c>
     </row>
     <row r="98" spans="1:3" x14ac:dyDescent="0.25">
@@ -2991,11 +2941,11 @@
       </c>
       <c r="B98" s="1">
         <f t="shared" ref="B98:B100" ca="1" si="5">IF(NORMINV(C98,(VLOOKUP(A98,$F$2:$H$4,2, FALSE)),VLOOKUP(A98,$F$2:$H$4,3, FALSE))&lt;=0,0,NORMINV(C98,(VLOOKUP(A98,$F$2:$H$4,2, FALSE)),VLOOKUP(A98,$F$2:$H$4,3, FALSE)))</f>
-        <v>87348.854169038357</v>
+        <v>160732.21973701796</v>
       </c>
       <c r="C98">
         <f t="shared" ca="1" si="4"/>
-        <v>0.19682329794273246</v>
+        <v>0.73060520542109109</v>
       </c>
     </row>
     <row r="99" spans="1:3" x14ac:dyDescent="0.25">
@@ -3004,11 +2954,11 @@
       </c>
       <c r="B99" s="1">
         <f t="shared" ca="1" si="5"/>
-        <v>46449.527594958767</v>
+        <v>85155.010742846629</v>
       </c>
       <c r="C99">
         <f t="shared" ca="1" si="4"/>
-        <v>0.13812946834405682</v>
+        <v>0.451796120272417</v>
       </c>
     </row>
     <row r="100" spans="1:3" x14ac:dyDescent="0.25">
@@ -3017,11 +2967,11 @@
       </c>
       <c r="B100" s="1">
         <f t="shared" ca="1" si="5"/>
-        <v>151769.43097543909</v>
+        <v>77244.811421156424</v>
       </c>
       <c r="C100">
         <f t="shared" ca="1" si="4"/>
-        <v>0.9090478052437051</v>
+        <v>0.57471128347331946</v>
       </c>
     </row>
   </sheetData>
@@ -3035,8 +2985,8 @@
   <dimension ref="A1:I103"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft"/>
+      <pane ySplit="1" topLeftCell="A18" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="I20" sqref="I20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3077,11 +3027,11 @@
       </c>
       <c r="B2" s="5">
         <f t="shared" ref="B2:B65" ca="1" si="0">IF(NORMINV(C2,(VLOOKUP(A2,$F$2:$H$4,2, FALSE)),VLOOKUP(A2,$F$2:$H$4,3, FALSE))&lt;=0,0,NORMINV(C2,(VLOOKUP(A2,$F$2:$H$4,2, FALSE)),VLOOKUP(A2,$F$2:$H$4,3, FALSE)))</f>
-        <v>165133.70482697827</v>
+        <v>190662.24716849695</v>
       </c>
       <c r="C2">
         <f ca="1">RAND()</f>
-        <v>0.75887056293119382</v>
+        <v>0.88748190716759379</v>
       </c>
       <c r="F2" t="s">
         <v>1</v>
@@ -3099,11 +3049,11 @@
       </c>
       <c r="B3" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>102927.76893534506</v>
+        <v>63247.059186030354</v>
       </c>
       <c r="C3">
         <f t="shared" ref="C3:C66" ca="1" si="1">RAND()</f>
-        <v>0.62672592228301804</v>
+        <v>0.25180403059538292</v>
       </c>
       <c r="F3" t="s">
         <v>2</v>
@@ -3121,11 +3071,11 @@
       </c>
       <c r="B4" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>153976.66717111383</v>
+        <v>90623.720464182668</v>
       </c>
       <c r="C4">
         <f t="shared" ca="1" si="1"/>
-        <v>0.96242381831921509</v>
+        <v>0.6958404870183833</v>
       </c>
       <c r="F4" t="s">
         <v>3</v>
@@ -3143,11 +3093,11 @@
       </c>
       <c r="B5" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>140916.15363083893</v>
+        <v>42553.184638763691</v>
       </c>
       <c r="C5">
         <f t="shared" ca="1" si="1"/>
-        <v>0.58641130065918601</v>
+        <v>4.0151014875800306E-2</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
@@ -3156,11 +3106,11 @@
       </c>
       <c r="B6" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>95032.600934397313</v>
+        <v>161483.24914861401</v>
       </c>
       <c r="C6">
         <f t="shared" ca="1" si="1"/>
-        <v>0.55006082532278577</v>
+        <v>0.96303781953800283</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.25">
@@ -3169,11 +3119,11 @@
       </c>
       <c r="B7" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>140460.03367281149</v>
+        <v>80529.85788304187</v>
       </c>
       <c r="C7">
         <f t="shared" ca="1" si="1"/>
-        <v>0.93437624591392743</v>
+        <v>0.6219465558743249</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.25">
@@ -3182,11 +3132,11 @@
       </c>
       <c r="B8" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>0</v>
+        <v>110750.70575188527</v>
       </c>
       <c r="C8">
         <f t="shared" ca="1" si="1"/>
-        <v>3.7350591340822303E-3</v>
+        <v>0.35012393662075703</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.25">
@@ -3195,11 +3145,11 @@
       </c>
       <c r="B9" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>65933.045794572739</v>
+        <v>104849.12365482612</v>
       </c>
       <c r="C9">
         <f t="shared" ca="1" si="1"/>
-        <v>0.27369562829141836</v>
+        <v>0.64476617412956994</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.25">
@@ -3208,11 +3158,11 @@
       </c>
       <c r="B10" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>121552.71546619119</v>
+        <v>24396.254634771431</v>
       </c>
       <c r="C10">
         <f t="shared" ca="1" si="1"/>
-        <v>0.87098388319487619</v>
+        <v>0.20837432525766186</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.25">
@@ -3221,11 +3171,11 @@
       </c>
       <c r="B11" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>187078.39290591807</v>
+        <v>68868.36369583878</v>
       </c>
       <c r="C11">
         <f t="shared" ca="1" si="1"/>
-        <v>0.87318315466415941</v>
+        <v>0.11073422334931415</v>
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.25">
@@ -3234,11 +3184,11 @@
       </c>
       <c r="B12" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>51942.143923705597</v>
+        <v>91622.3213397363</v>
       </c>
       <c r="C12">
         <f t="shared" ca="1" si="1"/>
-        <v>0.17068890728497776</v>
+        <v>0.51617587948576504</v>
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.25">
@@ -3247,11 +3197,11 @@
       </c>
       <c r="B13" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>61440.518579366471</v>
+        <v>38019.438001391682</v>
       </c>
       <c r="C13">
         <f t="shared" ca="1" si="1"/>
-        <v>0.47162341790090234</v>
+        <v>0.29473258173988159</v>
       </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.25">
@@ -3260,11 +3210,11 @@
       </c>
       <c r="B14" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>125195.25907001493</v>
+        <v>116063.27004589475</v>
       </c>
       <c r="C14">
         <f t="shared" ca="1" si="1"/>
-        <v>0.46172263321139106</v>
+        <v>0.39022425407335815</v>
       </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.25">
@@ -3273,11 +3223,11 @@
       </c>
       <c r="B15" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>54369.755560671867</v>
+        <v>36822.389060271962</v>
       </c>
       <c r="C15">
         <f t="shared" ca="1" si="1"/>
-        <v>0.18653001263179858</v>
+        <v>9.1851379161329127E-2</v>
       </c>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.25">
@@ -3286,11 +3236,11 @@
       </c>
       <c r="B16" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>27969.254316563907</v>
+        <v>76192.266309070925</v>
       </c>
       <c r="C16">
         <f t="shared" ca="1" si="1"/>
-        <v>0.2294634813979437</v>
+        <v>0.58856117023544219</v>
       </c>
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.25">
@@ -3299,11 +3249,11 @@
       </c>
       <c r="B17" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>72034.024321948062</v>
+        <v>156730.13042227639</v>
       </c>
       <c r="C17">
         <f t="shared" ca="1" si="1"/>
-        <v>0.1231629852984838</v>
+        <v>0.70353766023567232</v>
       </c>
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.25">
@@ -3312,11 +3262,11 @@
       </c>
       <c r="B18" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>75478.126525072425</v>
+        <v>83303.275932478733</v>
       </c>
       <c r="C18">
         <f t="shared" ca="1" si="1"/>
-        <v>0.35828494849174852</v>
+        <v>0.4335205415477974</v>
       </c>
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.25">
@@ -3325,11 +3275,11 @@
       </c>
       <c r="B19" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>168743.27836382063</v>
+        <v>106756.54720123162</v>
       </c>
       <c r="C19">
         <f t="shared" ca="1" si="1"/>
-        <v>0.98100050214085255</v>
+        <v>0.79817800718309873</v>
       </c>
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.25">
@@ -3338,14 +3288,14 @@
       </c>
       <c r="B20" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>126548.072061617</v>
+        <v>128396.01196571601</v>
       </c>
       <c r="C20">
         <f t="shared" ca="1" si="1"/>
-        <v>0.47247946362318727</v>
-      </c>
-      <c r="I20" t="e" cm="1" vm="2">
-        <f t="array" aca="1" ref="I20" ca="1">_xlfn._xlws.PY(1,1,A1:B103)</f>
+        <v>0.48720422186772483</v>
+      </c>
+      <c r="I20" t="e" cm="1" vm="1">
+        <f t="array" aca="1" ref="I20" ca="1">_xlfn._xlws.PY(0,1,A1:B103)</f>
         <v>#VALUE!</v>
       </c>
     </row>
@@ -3355,14 +3305,14 @@
       </c>
       <c r="B21" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>139677.80013385418</v>
+        <v>70370.336115144106</v>
       </c>
       <c r="C21">
         <f t="shared" ca="1" si="1"/>
-        <v>0.89287157291052321</v>
-      </c>
-      <c r="I21" cm="1" vm="3">
-        <f t="array" aca="1" ref="I21" ca="1">_xlfn._xlws.PY(2,1)</f>
+        <v>0.31180461087347955</v>
+      </c>
+      <c r="I21" cm="1" vm="2">
+        <f t="array" aca="1" ref="I21" ca="1">_xlfn._xlws.PY(1,1)</f>
         <v>0</v>
       </c>
     </row>
@@ -3372,14 +3322,14 @@
       </c>
       <c r="B22" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>22786.467658811547</v>
+        <v>64214.830633419442</v>
       </c>
       <c r="C22">
         <f t="shared" ca="1" si="1"/>
-        <v>0.19925909239139061</v>
-      </c>
-      <c r="I22" t="e" cm="1" vm="4">
-        <f t="array" aca="1" ref="I22" ca="1">_xlfn._xlws.PY(3,1)</f>
+        <v>0.49373551231561585</v>
+      </c>
+      <c r="I22" t="e" cm="1" vm="3">
+        <f t="array" aca="1" ref="I22" ca="1">_xlfn._xlws.PY(2,1)</f>
         <v>#VALUE!</v>
       </c>
     </row>
@@ -3389,11 +3339,11 @@
       </c>
       <c r="B23" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>183237.01626744412</v>
+        <v>190413.7698639665</v>
       </c>
       <c r="C23">
         <f t="shared" ca="1" si="1"/>
-        <v>0.8565032718684561</v>
+        <v>0.88652932569745779</v>
       </c>
     </row>
     <row r="24" spans="1:9" x14ac:dyDescent="0.25">
@@ -3402,11 +3352,11 @@
       </c>
       <c r="B24" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>175136.21388589207</v>
+        <v>51326.02279279365</v>
       </c>
       <c r="C24">
         <f t="shared" ca="1" si="1"/>
-        <v>0.9833482549032031</v>
+        <v>0.16680965492513256</v>
       </c>
     </row>
     <row r="25" spans="1:9" x14ac:dyDescent="0.25">
@@ -3415,11 +3365,11 @@
       </c>
       <c r="B25" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>58531.353442828629</v>
+        <v>29167.783773062656</v>
       </c>
       <c r="C25">
         <f t="shared" ca="1" si="1"/>
-        <v>0.44853128273774423</v>
+        <v>0.23679679373078977</v>
       </c>
     </row>
     <row r="26" spans="1:9" x14ac:dyDescent="0.25">
@@ -3428,11 +3378,11 @@
       </c>
       <c r="B26" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>76236.745595738685</v>
+        <v>119804.65576016906</v>
       </c>
       <c r="C26">
         <f t="shared" ca="1" si="1"/>
-        <v>0.14112803098725879</v>
+        <v>0.41921313241155767</v>
       </c>
     </row>
     <row r="27" spans="1:9" x14ac:dyDescent="0.25">
@@ -3441,11 +3391,11 @@
       </c>
       <c r="B27" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>145653.30917820672</v>
+        <v>116155.00486478358</v>
       </c>
       <c r="C27">
         <f t="shared" ca="1" si="1"/>
-        <v>0.91793772333263168</v>
+        <v>0.74340386833448335</v>
       </c>
     </row>
     <row r="28" spans="1:9" x14ac:dyDescent="0.25">
@@ -3454,11 +3404,11 @@
       </c>
       <c r="B28" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>83909.658712259858</v>
+        <v>52187.328887817101</v>
       </c>
       <c r="C28">
         <f t="shared" ca="1" si="1"/>
-        <v>0.64735645212984927</v>
+        <v>0.39887758016692854</v>
       </c>
     </row>
     <row r="29" spans="1:9" x14ac:dyDescent="0.25">
@@ -3467,11 +3417,11 @@
       </c>
       <c r="B29" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>157296.31557198573</v>
+        <v>131417.61969013826</v>
       </c>
       <c r="C29">
         <f t="shared" ca="1" si="1"/>
-        <v>0.70744170439225462</v>
+        <v>0.51130945341867595</v>
       </c>
     </row>
     <row r="30" spans="1:9" x14ac:dyDescent="0.25">
@@ -3480,11 +3430,11 @@
       </c>
       <c r="B30" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>74893.158685124436</v>
+        <v>47440.630448995922</v>
       </c>
       <c r="C30">
         <f t="shared" ca="1" si="1"/>
-        <v>0.35283749459378666</v>
+        <v>0.14366791980418814</v>
       </c>
     </row>
     <row r="31" spans="1:9" x14ac:dyDescent="0.25">
@@ -3493,11 +3443,11 @@
       </c>
       <c r="B31" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>122271.45470799613</v>
+        <v>119520.84840726526</v>
       </c>
       <c r="C31">
         <f t="shared" ca="1" si="1"/>
-        <v>0.8739842739880519</v>
+        <v>0.86223524465228418</v>
       </c>
     </row>
     <row r="32" spans="1:9" x14ac:dyDescent="0.25">
@@ -3506,11 +3456,11 @@
       </c>
       <c r="B32" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>97441.588269658663</v>
+        <v>179165.23679368515</v>
       </c>
       <c r="C32">
         <f t="shared" ca="1" si="1"/>
-        <v>0.257468946622464</v>
+        <v>0.8372712600104899</v>
       </c>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.25">
@@ -3519,11 +3469,11 @@
       </c>
       <c r="B33" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>118153.31811320275</v>
+        <v>79256.144928772614</v>
       </c>
       <c r="C33">
         <f t="shared" ca="1" si="1"/>
-        <v>0.75923159526432615</v>
+        <v>0.39412015038979675</v>
       </c>
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.25">
@@ -3532,11 +3482,11 @@
       </c>
       <c r="B34" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>76376.322392447793</v>
+        <v>88202.253007526786</v>
       </c>
       <c r="C34">
         <f t="shared" ca="1" si="1"/>
-        <v>0.58999279697502183</v>
+        <v>0.67869226880848399</v>
       </c>
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.25">
@@ -3545,11 +3495,11 @@
       </c>
       <c r="B35" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>65668.453545267199</v>
+        <v>236799.43792954256</v>
       </c>
       <c r="C35">
         <f t="shared" ca="1" si="1"/>
-        <v>9.911147903263251E-2</v>
+        <v>0.98365983494585918</v>
       </c>
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.25">
@@ -3558,11 +3508,11 @@
       </c>
       <c r="B36" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>84052.908402604691</v>
+        <v>89937.407880094936</v>
       </c>
       <c r="C36">
         <f t="shared" ca="1" si="1"/>
-        <v>0.4409041410249338</v>
+        <v>0.49937573417851167</v>
       </c>
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.25">
@@ -3571,11 +3521,11 @@
       </c>
       <c r="B37" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>144669.48641151897</v>
+        <v>46790.934916701633</v>
       </c>
       <c r="C37">
         <f t="shared" ca="1" si="1"/>
-        <v>0.94446360570440901</v>
+        <v>0.35786131439848279</v>
       </c>
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.25">
@@ -3584,11 +3534,11 @@
       </c>
       <c r="B38" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>119153.93607832337</v>
+        <v>160462.40539055603</v>
       </c>
       <c r="C38">
         <f t="shared" ca="1" si="1"/>
-        <v>0.41413484730610084</v>
+        <v>0.72882000138975223</v>
       </c>
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.25">
@@ -3597,11 +3547,11 @@
       </c>
       <c r="B39" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>148166.83939270294</v>
+        <v>58353.645339869967</v>
       </c>
       <c r="C39">
         <f t="shared" ca="1" si="1"/>
-        <v>0.92705054640258133</v>
+        <v>0.21442564569349476</v>
       </c>
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.25">
@@ -3610,11 +3560,11 @@
       </c>
       <c r="B40" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>12687.398388688242</v>
+        <v>46217.641431158176</v>
       </c>
       <c r="C40">
         <f t="shared" ca="1" si="1"/>
-        <v>0.14772234277168272</v>
+        <v>0.35358960857069455</v>
       </c>
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.25">
@@ -3623,11 +3573,11 @@
       </c>
       <c r="B41" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>177360.39630373946</v>
+        <v>140677.35399520528</v>
       </c>
       <c r="C41">
         <f t="shared" ca="1" si="1"/>
-        <v>0.82823358134854053</v>
+        <v>0.58454986428780353</v>
       </c>
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.25">
@@ -3636,11 +3586,11 @@
       </c>
       <c r="B42" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>130071.68858399538</v>
+        <v>101143.48532728887</v>
       </c>
       <c r="C42">
         <f t="shared" ca="1" si="1"/>
-        <v>0.84177802092498144</v>
+        <v>0.6097191559154671</v>
       </c>
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.25">
@@ -3649,11 +3599,11 @@
       </c>
       <c r="B43" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>0</v>
+        <v>147772.22840189512</v>
       </c>
       <c r="C43">
         <f t="shared" ca="1" si="1"/>
-        <v>9.0228580146943793E-2</v>
+        <v>0.95108282408164968</v>
       </c>
     </row>
     <row r="44" spans="1:3" x14ac:dyDescent="0.25">
@@ -3662,11 +3612,11 @@
       </c>
       <c r="B44" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>221723.38171734998</v>
+        <v>124262.67955469964</v>
       </c>
       <c r="C44">
         <f t="shared" ca="1" si="1"/>
-        <v>0.966707696042019</v>
+        <v>0.45432306392806088</v>
       </c>
     </row>
     <row r="45" spans="1:3" x14ac:dyDescent="0.25">
@@ -3675,11 +3625,11 @@
       </c>
       <c r="B45" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>64111.533376263746</v>
+        <v>29791.796771298999</v>
       </c>
       <c r="C45">
         <f t="shared" ca="1" si="1"/>
-        <v>0.25874748116414281</v>
+        <v>6.6135679671587178E-2</v>
       </c>
     </row>
     <row r="46" spans="1:3" x14ac:dyDescent="0.25">
@@ -3688,11 +3638,11 @@
       </c>
       <c r="B46" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>59336.442797346521</v>
+        <v>50457.546671388198</v>
       </c>
       <c r="C46">
         <f t="shared" ca="1" si="1"/>
-        <v>0.45490779684497795</v>
+        <v>0.38558337848673208</v>
       </c>
     </row>
     <row r="47" spans="1:3" x14ac:dyDescent="0.25">
@@ -3701,11 +3651,11 @@
       </c>
       <c r="B47" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>104704.97396671939</v>
+        <v>154918.85825012912</v>
       </c>
       <c r="C47">
         <f t="shared" ca="1" si="1"/>
-        <v>0.30646324339532183</v>
+        <v>0.69089088572935575</v>
       </c>
     </row>
     <row r="48" spans="1:3" x14ac:dyDescent="0.25">
@@ -3714,11 +3664,11 @@
       </c>
       <c r="B48" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>95575.18910178385</v>
+        <v>122742.61077782104</v>
       </c>
       <c r="C48">
         <f t="shared" ca="1" si="1"/>
-        <v>0.55542495446861628</v>
+        <v>0.79348275552681147</v>
       </c>
     </row>
     <row r="49" spans="1:3" x14ac:dyDescent="0.25">
@@ -3727,11 +3677,11 @@
       </c>
       <c r="B49" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>141400.75343159295</v>
+        <v>183364.99841153593</v>
       </c>
       <c r="C49">
         <f t="shared" ca="1" si="1"/>
-        <v>0.9367456016477349</v>
+        <v>0.9910407983777958</v>
       </c>
     </row>
     <row r="50" spans="1:3" x14ac:dyDescent="0.25">
@@ -3740,11 +3690,11 @@
       </c>
       <c r="B50" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>184198.1885416439</v>
+        <v>158707.42080465044</v>
       </c>
       <c r="C50">
         <f t="shared" ca="1" si="1"/>
-        <v>0.86080956870796377</v>
+        <v>0.71706631370273721</v>
       </c>
     </row>
     <row r="51" spans="1:3" x14ac:dyDescent="0.25">
@@ -3753,11 +3703,11 @@
       </c>
       <c r="B51" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>118923.9783298205</v>
+        <v>83260.544966147427</v>
       </c>
       <c r="C51">
         <f t="shared" ca="1" si="1"/>
-        <v>0.76519060894476254</v>
+        <v>0.43310033047789787</v>
       </c>
     </row>
     <row r="52" spans="1:3" x14ac:dyDescent="0.25">
@@ -3766,11 +3716,11 @@
       </c>
       <c r="B52" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>80494.448632176747</v>
+        <v>140817.18992897606</v>
       </c>
       <c r="C52">
         <f t="shared" ca="1" si="1"/>
-        <v>0.62167730556857415</v>
+        <v>0.93528377892288428</v>
       </c>
     </row>
     <row r="53" spans="1:3" x14ac:dyDescent="0.25">
@@ -3779,11 +3729,11 @@
       </c>
       <c r="B53" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>101880.76366448466</v>
+        <v>11735.682469521853</v>
       </c>
       <c r="C53">
         <f t="shared" ca="1" si="1"/>
-        <v>0.28692696143604568</v>
+        <v>9.0080674718141518E-3</v>
       </c>
     </row>
     <row r="54" spans="1:3" x14ac:dyDescent="0.25">
@@ -3792,11 +3742,11 @@
       </c>
       <c r="B54" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>39608.007269506175</v>
+        <v>121031.31401816651</v>
       </c>
       <c r="C54">
         <f t="shared" ca="1" si="1"/>
-        <v>0.1038707926879372</v>
+        <v>0.78106139427014298</v>
       </c>
     </row>
     <row r="55" spans="1:3" x14ac:dyDescent="0.25">
@@ -3805,11 +3755,11 @@
       </c>
       <c r="B55" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>76496.07193871084</v>
+        <v>75892.901034060997</v>
       </c>
       <c r="C55">
         <f t="shared" ca="1" si="1"/>
-        <v>0.59092359158435759</v>
+        <v>0.58623013192978468</v>
       </c>
     </row>
     <row r="56" spans="1:3" x14ac:dyDescent="0.25">
@@ -3818,11 +3768,11 @@
       </c>
       <c r="B56" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>140930.70643680514</v>
+        <v>160056.3051693723</v>
       </c>
       <c r="C56">
         <f t="shared" ca="1" si="1"/>
-        <v>0.58652467706376887</v>
+        <v>0.72612200078378164</v>
       </c>
     </row>
     <row r="57" spans="1:3" x14ac:dyDescent="0.25">
@@ -3831,11 +3781,11 @@
       </c>
       <c r="B57" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>87356.590371150756</v>
+        <v>176227.90979282197</v>
       </c>
       <c r="C57">
         <f t="shared" ca="1" si="1"/>
-        <v>0.47365498068060374</v>
+        <v>0.98444636280273901</v>
       </c>
     </row>
     <row r="58" spans="1:3" x14ac:dyDescent="0.25">
@@ -3844,11 +3794,11 @@
       </c>
       <c r="B58" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>68394.221441316593</v>
+        <v>63745.890845707392</v>
       </c>
       <c r="C58">
         <f t="shared" ca="1" si="1"/>
-        <v>0.52706118292326676</v>
+        <v>0.48999470577490944</v>
       </c>
     </row>
     <row r="59" spans="1:3" x14ac:dyDescent="0.25">
@@ -3857,11 +3807,11 @@
       </c>
       <c r="B59" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>74144.100833641307</v>
+        <v>86728.482735550817</v>
       </c>
       <c r="C59">
         <f t="shared" ca="1" si="1"/>
-        <v>0.13197194115496969</v>
+        <v>0.19340131577021347</v>
       </c>
     </row>
     <row r="60" spans="1:3" x14ac:dyDescent="0.25">
@@ -3870,11 +3820,11 @@
       </c>
       <c r="B60" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>103955.97903077771</v>
+        <v>120968.98090017347</v>
       </c>
       <c r="C60">
         <f t="shared" ca="1" si="1"/>
-        <v>0.63641761062182989</v>
+        <v>0.78060098548060786</v>
       </c>
     </row>
     <row r="61" spans="1:3" x14ac:dyDescent="0.25">
@@ -3883,11 +3833,11 @@
       </c>
       <c r="B61" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>68959.558723710128</v>
+        <v>82106.385318584813</v>
       </c>
       <c r="C61">
         <f t="shared" ca="1" si="1"/>
-        <v>0.53155971785168299</v>
+        <v>0.6338726062323049</v>
       </c>
     </row>
     <row r="62" spans="1:3" x14ac:dyDescent="0.25">
@@ -3896,11 +3846,11 @@
       </c>
       <c r="B62" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>141052.48918160575</v>
+        <v>147608.89952592424</v>
       </c>
       <c r="C62">
         <f t="shared" ca="1" si="1"/>
-        <v>0.58747316506360492</v>
+        <v>0.63764760902565143</v>
       </c>
     </row>
     <row r="63" spans="1:3" x14ac:dyDescent="0.25">
@@ -3909,11 +3859,11 @@
       </c>
       <c r="B63" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>78514.398330472686</v>
+        <v>58676.887724085027</v>
       </c>
       <c r="C63">
         <f t="shared" ca="1" si="1"/>
-        <v>0.38700254680604451</v>
+        <v>0.21679071138203765</v>
       </c>
     </row>
     <row r="64" spans="1:3" x14ac:dyDescent="0.25">
@@ -3922,11 +3872,11 @@
       </c>
       <c r="B64" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>38337.256102501909</v>
+        <v>13739.599814649147</v>
       </c>
       <c r="C64">
         <f t="shared" ca="1" si="1"/>
-        <v>0.29692857896270031</v>
+        <v>0.15263252626637203</v>
       </c>
     </row>
     <row r="65" spans="1:3" x14ac:dyDescent="0.25">
@@ -3935,11 +3885,11 @@
       </c>
       <c r="B65" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>164467.16578459917</v>
+        <v>10981.818438287533</v>
       </c>
       <c r="C65">
         <f t="shared" ca="1" si="1"/>
-        <v>0.75469637721852612</v>
+        <v>8.6477806649675193E-3</v>
       </c>
     </row>
     <row r="66" spans="1:3" x14ac:dyDescent="0.25">
@@ -3948,11 +3898,11 @@
       </c>
       <c r="B66" s="5">
         <f t="shared" ref="B66:B103" ca="1" si="2">IF(NORMINV(C66,(VLOOKUP(A66,$F$2:$H$4,2, FALSE)),VLOOKUP(A66,$F$2:$H$4,3, FALSE))&lt;=0,0,NORMINV(C66,(VLOOKUP(A66,$F$2:$H$4,2, FALSE)),VLOOKUP(A66,$F$2:$H$4,3, FALSE)))</f>
-        <v>158009.85515430971</v>
+        <v>44549.149746074683</v>
       </c>
       <c r="C66">
         <f t="shared" ca="1" si="1"/>
-        <v>0.95545770409349062</v>
+        <v>0.12792152829022074</v>
       </c>
     </row>
     <row r="67" spans="1:3" x14ac:dyDescent="0.25">
@@ -3961,11 +3911,11 @@
       </c>
       <c r="B67" s="5">
         <f t="shared" ca="1" si="2"/>
-        <v>38430.670631273526</v>
+        <v>150060.35388414119</v>
       </c>
       <c r="C67">
         <f t="shared" ref="C67:C103" ca="1" si="3">RAND()</f>
-        <v>0.2975754570456467</v>
+        <v>0.95554794535795395</v>
       </c>
     </row>
     <row r="68" spans="1:3" x14ac:dyDescent="0.25">
@@ -3974,11 +3924,11 @@
       </c>
       <c r="B68" s="5">
         <f t="shared" ca="1" si="2"/>
-        <v>30679.037874721558</v>
+        <v>195530.61099660079</v>
       </c>
       <c r="C68">
         <f t="shared" ca="1" si="3"/>
-        <v>2.3493395871901135E-2</v>
+        <v>0.90500559570187256</v>
       </c>
     </row>
     <row r="69" spans="1:3" x14ac:dyDescent="0.25">
@@ -3987,11 +3937,11 @@
       </c>
       <c r="B69" s="5">
         <f t="shared" ca="1" si="2"/>
-        <v>55211.828055516366</v>
+        <v>154875.42291128513</v>
       </c>
       <c r="C69">
         <f t="shared" ca="1" si="3"/>
-        <v>0.19223101125400932</v>
+        <v>0.94758607439795772</v>
       </c>
     </row>
     <row r="70" spans="1:3" x14ac:dyDescent="0.25">
@@ -4000,11 +3950,11 @@
       </c>
       <c r="B70" s="5">
         <f t="shared" ca="1" si="2"/>
-        <v>24680.85364444444</v>
+        <v>16414.510624735296</v>
       </c>
       <c r="C70">
         <f t="shared" ca="1" si="3"/>
-        <v>0.21001104401699922</v>
+        <v>0.16559747311338546</v>
       </c>
     </row>
     <row r="71" spans="1:3" x14ac:dyDescent="0.25">
@@ -4013,11 +3963,11 @@
       </c>
       <c r="B71" s="5">
         <f t="shared" ca="1" si="2"/>
-        <v>147118.87833699631</v>
+        <v>229155.07568395339</v>
       </c>
       <c r="C71">
         <f t="shared" ca="1" si="3"/>
-        <v>0.63396661567821533</v>
+        <v>0.9763219542141921</v>
       </c>
     </row>
     <row r="72" spans="1:3" x14ac:dyDescent="0.25">
@@ -4026,11 +3976,11 @@
       </c>
       <c r="B72" s="5">
         <f t="shared" ca="1" si="2"/>
-        <v>102075.49747410748</v>
+        <v>98318.661375478376</v>
       </c>
       <c r="C72">
         <f t="shared" ca="1" si="3"/>
-        <v>0.61863106341884677</v>
+        <v>0.58237245113402525</v>
       </c>
     </row>
     <row r="73" spans="1:3" x14ac:dyDescent="0.25">
@@ -4039,11 +3989,11 @@
       </c>
       <c r="B73" s="5">
         <f t="shared" ca="1" si="2"/>
-        <v>27075.989077084545</v>
+        <v>57782.709180660175</v>
       </c>
       <c r="C73">
         <f t="shared" ca="1" si="3"/>
-        <v>0.22408177544944474</v>
+        <v>0.44261370043040027</v>
       </c>
     </row>
     <row r="74" spans="1:3" x14ac:dyDescent="0.25">
@@ -4052,11 +4002,11 @@
       </c>
       <c r="B74" s="5">
         <f t="shared" ca="1" si="2"/>
-        <v>134867.81355828984</v>
+        <v>221999.36351039924</v>
       </c>
       <c r="C74">
         <f t="shared" ca="1" si="3"/>
-        <v>0.5387782648708741</v>
+        <v>0.96711494687643562</v>
       </c>
     </row>
     <row r="75" spans="1:3" x14ac:dyDescent="0.25">
@@ -4065,11 +4015,11 @@
       </c>
       <c r="B75" s="5">
         <f t="shared" ca="1" si="2"/>
-        <v>77351.106552822137</v>
+        <v>88250.822817445354</v>
       </c>
       <c r="C75">
         <f t="shared" ca="1" si="3"/>
-        <v>0.37591687756998848</v>
+        <v>0.48256004012455844</v>
       </c>
     </row>
     <row r="76" spans="1:3" x14ac:dyDescent="0.25">
@@ -4078,11 +4028,11 @@
       </c>
       <c r="B76" s="5">
         <f t="shared" ca="1" si="2"/>
-        <v>98667.65824862718</v>
+        <v>73755.612160384073</v>
       </c>
       <c r="C76">
         <f t="shared" ca="1" si="3"/>
-        <v>0.74963868144244661</v>
+        <v>0.56950428088697824</v>
       </c>
     </row>
     <row r="77" spans="1:3" x14ac:dyDescent="0.25">
@@ -4091,11 +4041,11 @@
       </c>
       <c r="B77" s="5">
         <f t="shared" ca="1" si="2"/>
-        <v>172550.35167224091</v>
+        <v>202522.06978618578</v>
       </c>
       <c r="C77">
         <f t="shared" ca="1" si="3"/>
-        <v>0.80261727713035502</v>
+        <v>0.92653226475350925</v>
       </c>
     </row>
     <row r="78" spans="1:3" x14ac:dyDescent="0.25">
@@ -4104,11 +4054,11 @@
       </c>
       <c r="B78" s="5">
         <f t="shared" ca="1" si="2"/>
-        <v>27847.852999059993</v>
+        <v>0</v>
       </c>
       <c r="C78">
         <f t="shared" ca="1" si="3"/>
-        <v>6.0115626838486813E-2</v>
+        <v>9.8386236098879642E-3</v>
       </c>
     </row>
     <row r="79" spans="1:3" x14ac:dyDescent="0.25">
@@ -4117,11 +4067,11 @@
       </c>
       <c r="B79" s="5">
         <f t="shared" ca="1" si="2"/>
-        <v>106419.65159761623</v>
+        <v>394.34085852124554</v>
       </c>
       <c r="C79">
         <f t="shared" ca="1" si="3"/>
-        <v>0.79627602427674571</v>
+        <v>9.8158975602714582E-2</v>
       </c>
     </row>
     <row r="80" spans="1:3" x14ac:dyDescent="0.25">
@@ -4130,11 +4080,11 @@
       </c>
       <c r="B80" s="5">
         <f t="shared" ca="1" si="2"/>
-        <v>53056.808501602951</v>
+        <v>153674.28631090181</v>
       </c>
       <c r="C80">
         <f t="shared" ca="1" si="3"/>
-        <v>6.1918771501585534E-2</v>
+        <v>0.68206665894592355</v>
       </c>
     </row>
     <row r="81" spans="1:3" x14ac:dyDescent="0.25">
@@ -4143,11 +4093,11 @@
       </c>
       <c r="B81" s="5">
         <f t="shared" ca="1" si="2"/>
-        <v>205682.97301989872</v>
+        <v>92660.297123428085</v>
       </c>
       <c r="C81">
         <f t="shared" ca="1" si="3"/>
-        <v>0.99808646301140036</v>
+        <v>0.52651307797594027</v>
       </c>
     </row>
     <row r="82" spans="1:3" x14ac:dyDescent="0.25">
@@ -4156,11 +4106,11 @@
       </c>
       <c r="B82" s="5">
         <f t="shared" ca="1" si="2"/>
-        <v>124528.48406468538</v>
+        <v>0</v>
       </c>
       <c r="C82">
         <f t="shared" ca="1" si="3"/>
-        <v>0.88308872008345762</v>
+        <v>2.5954792524922277E-2</v>
       </c>
     </row>
     <row r="83" spans="1:3" x14ac:dyDescent="0.25">
@@ -4169,11 +4119,11 @@
       </c>
       <c r="B83" s="5">
         <f t="shared" ca="1" si="2"/>
-        <v>165434.8983252116</v>
+        <v>169415.16799846385</v>
       </c>
       <c r="C83">
         <f t="shared" ca="1" si="3"/>
-        <v>0.76074403648700406</v>
+        <v>0.78474035860385982</v>
       </c>
     </row>
     <row r="84" spans="1:3" x14ac:dyDescent="0.25">
@@ -4182,11 +4132,11 @@
       </c>
       <c r="B84" s="5">
         <f t="shared" ca="1" si="2"/>
-        <v>89622.63310291931</v>
+        <v>86240.69710333008</v>
       </c>
       <c r="C84">
         <f t="shared" ca="1" si="3"/>
-        <v>0.49623636556785633</v>
+        <v>0.46256150032533727</v>
       </c>
     </row>
     <row r="85" spans="1:3" x14ac:dyDescent="0.25">
@@ -4195,11 +4145,11 @@
       </c>
       <c r="B85" s="5">
         <f t="shared" ca="1" si="2"/>
-        <v>118197.53771472738</v>
+        <v>0</v>
       </c>
       <c r="C85">
         <f t="shared" ca="1" si="3"/>
-        <v>0.85632449551815526</v>
+        <v>4.964290045930686E-2</v>
       </c>
     </row>
     <row r="86" spans="1:3" x14ac:dyDescent="0.25">
@@ -4208,11 +4158,11 @@
       </c>
       <c r="B86" s="5">
         <f t="shared" ca="1" si="2"/>
-        <v>103278.77708335713</v>
+        <v>116158.41873866825</v>
       </c>
       <c r="C86">
         <f t="shared" ca="1" si="3"/>
-        <v>0.29652395046894264</v>
+        <v>0.39095469818952544</v>
       </c>
     </row>
     <row r="87" spans="1:3" x14ac:dyDescent="0.25">
@@ -4221,11 +4171,11 @@
       </c>
       <c r="B87" s="5">
         <f t="shared" ca="1" si="2"/>
-        <v>58675.133214467685</v>
+        <v>94592.261516491271</v>
       </c>
       <c r="C87">
         <f t="shared" ca="1" si="3"/>
-        <v>0.21677783359246205</v>
+        <v>0.54570076658940703</v>
       </c>
     </row>
     <row r="88" spans="1:3" x14ac:dyDescent="0.25">
@@ -4234,11 +4184,11 @@
       </c>
       <c r="B88" s="5">
         <f t="shared" ca="1" si="2"/>
-        <v>83573.946480471772</v>
+        <v>93415.427051117353</v>
       </c>
       <c r="C88">
         <f t="shared" ca="1" si="3"/>
-        <v>0.64485957662046867</v>
+        <v>0.71508725975428389</v>
       </c>
     </row>
     <row r="89" spans="1:3" x14ac:dyDescent="0.25">
@@ -4247,11 +4197,11 @@
       </c>
       <c r="B89" s="5">
         <f t="shared" ca="1" si="2"/>
-        <v>207483.02126348059</v>
+        <v>59428.759253971104</v>
       </c>
       <c r="C89">
         <f t="shared" ca="1" si="3"/>
-        <v>0.93938847924805968</v>
+        <v>7.9059695142588371E-2</v>
       </c>
     </row>
     <row r="90" spans="1:3" x14ac:dyDescent="0.25">
@@ -4260,11 +4210,11 @@
       </c>
       <c r="B90" s="5">
         <f t="shared" ca="1" si="2"/>
-        <v>129943.93017025388</v>
+        <v>35189.891550649561</v>
       </c>
       <c r="C90">
         <f t="shared" ca="1" si="3"/>
-        <v>0.8410053269123724</v>
+        <v>8.5304014557051722E-2</v>
       </c>
     </row>
     <row r="91" spans="1:3" x14ac:dyDescent="0.25">
@@ -4273,11 +4223,11 @@
       </c>
       <c r="B91" s="5">
         <f t="shared" ca="1" si="2"/>
-        <v>27664.537031109794</v>
+        <v>0</v>
       </c>
       <c r="C91">
         <f t="shared" ca="1" si="3"/>
-        <v>0.22761953965107107</v>
+        <v>4.1980216144527738E-2</v>
       </c>
     </row>
     <row r="92" spans="1:3" x14ac:dyDescent="0.25">
@@ -4286,11 +4236,11 @@
       </c>
       <c r="B92" s="5">
         <f t="shared" ca="1" si="2"/>
-        <v>83742.735513312917</v>
+        <v>152012.52392884874</v>
       </c>
       <c r="C92">
         <f t="shared" ca="1" si="3"/>
-        <v>0.17744516874282212</v>
+        <v>0.67012214837022421</v>
       </c>
     </row>
     <row r="93" spans="1:3" x14ac:dyDescent="0.25">
@@ -4299,11 +4249,11 @@
       </c>
       <c r="B93" s="5">
         <f t="shared" ca="1" si="2"/>
-        <v>50914.130880799908</v>
+        <v>78094.680672339586</v>
       </c>
       <c r="C93">
         <f t="shared" ca="1" si="3"/>
-        <v>0.164248258466964</v>
+        <v>0.38299164893739468</v>
       </c>
     </row>
     <row r="94" spans="1:3" x14ac:dyDescent="0.25">
@@ -4312,11 +4262,11 @@
       </c>
       <c r="B94" s="5">
         <f t="shared" ca="1" si="2"/>
-        <v>148395.41415499459</v>
+        <v>38819.567158179314</v>
       </c>
       <c r="C94">
         <f t="shared" ca="1" si="3"/>
-        <v>0.95233303243795486</v>
+        <v>0.30027537958097672</v>
       </c>
     </row>
     <row r="95" spans="1:3" x14ac:dyDescent="0.25">
@@ -4325,11 +4275,11 @@
       </c>
       <c r="B95" s="5">
         <f t="shared" ca="1" si="2"/>
-        <v>173410.92795768549</v>
+        <v>152744.14723939082</v>
       </c>
       <c r="C95">
         <f t="shared" ca="1" si="3"/>
-        <v>0.80736265195877444</v>
+        <v>0.67540327327385064</v>
       </c>
     </row>
     <row r="96" spans="1:3" x14ac:dyDescent="0.25">
@@ -4338,11 +4288,11 @@
       </c>
       <c r="B96" s="5">
         <f t="shared" ca="1" si="2"/>
-        <v>96470.390073021728</v>
+        <v>76670.510284186588</v>
       </c>
       <c r="C96">
         <f t="shared" ca="1" si="3"/>
-        <v>0.56425247553502367</v>
+        <v>0.36947760368210947</v>
       </c>
     </row>
     <row r="97" spans="1:3" x14ac:dyDescent="0.25">
@@ -4351,11 +4301,11 @@
       </c>
       <c r="B97" s="5">
         <f t="shared" ca="1" si="2"/>
-        <v>89088.225382457909</v>
+        <v>167292.77205840035</v>
       </c>
       <c r="C97">
         <f t="shared" ca="1" si="3"/>
-        <v>0.68501337743247126</v>
+        <v>0.9796147022758197</v>
       </c>
     </row>
     <row r="98" spans="1:3" x14ac:dyDescent="0.25">
@@ -4364,11 +4314,11 @@
       </c>
       <c r="B98" s="5">
         <f t="shared" ca="1" si="2"/>
-        <v>126652.08259612115</v>
+        <v>88112.883764882659</v>
       </c>
       <c r="C98">
         <f t="shared" ca="1" si="3"/>
-        <v>0.47330743108258322</v>
+        <v>0.20108771855287311</v>
       </c>
     </row>
     <row r="99" spans="1:3" x14ac:dyDescent="0.25">
@@ -4377,11 +4327,11 @@
       </c>
       <c r="B99" s="5">
         <f t="shared" ca="1" si="2"/>
-        <v>31887.283203911415</v>
+        <v>46222.868486788313</v>
       </c>
       <c r="C99">
         <f t="shared" ca="1" si="3"/>
-        <v>7.313715756776773E-2</v>
+        <v>0.13688359152277763</v>
       </c>
     </row>
     <row r="100" spans="1:3" x14ac:dyDescent="0.25">
@@ -4390,11 +4340,11 @@
       </c>
       <c r="B100" s="5">
         <f t="shared" ca="1" si="2"/>
-        <v>34238.937040372854</v>
+        <v>71883.261252545024</v>
       </c>
       <c r="C100">
         <f t="shared" ca="1" si="3"/>
-        <v>0.26920430498117265</v>
+        <v>0.55474749797486833</v>
       </c>
     </row>
     <row r="101" spans="1:3" x14ac:dyDescent="0.25">
@@ -4403,11 +4353,11 @@
       </c>
       <c r="B101" s="5">
         <f t="shared" ca="1" si="2"/>
-        <v>212137.62305641163</v>
+        <v>134685.32190138748</v>
       </c>
       <c r="C101">
         <f t="shared" ca="1" si="3"/>
-        <v>0.94978292016704235</v>
+        <v>0.53732882201118548</v>
       </c>
     </row>
     <row r="102" spans="1:3" x14ac:dyDescent="0.25">
@@ -4416,11 +4366,11 @@
       </c>
       <c r="B102" s="5">
         <f t="shared" ca="1" si="2"/>
-        <v>80885.617820682208</v>
+        <v>51773.777060828914</v>
       </c>
       <c r="C102">
         <f t="shared" ca="1" si="3"/>
-        <v>0.40987771323036848</v>
+        <v>0.16962313732100698</v>
       </c>
     </row>
     <row r="103" spans="1:3" x14ac:dyDescent="0.25">
@@ -4429,11 +4379,11 @@
       </c>
       <c r="B103" s="5">
         <f t="shared" ca="1" si="2"/>
-        <v>111044.49273361804</v>
+        <v>113443.47361476079</v>
       </c>
       <c r="C103">
         <f t="shared" ca="1" si="3"/>
-        <v>0.82144603204416422</v>
+        <v>0.83369484068411648</v>
       </c>
     </row>
   </sheetData>

--- a/Example for Boxplots.xlsx
+++ b/Example for Boxplots.xlsx
@@ -8,18 +8,27 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="Y:\My Drive\Code\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A77EA2B4-93FD-4FDC-8D56-3F02E1FF784C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{128BA1B5-E14A-4795-99BA-9DE9F3DF9164}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="22920" windowHeight="12255" activeTab="1" xr2:uid="{D4A46A4F-EA7B-486E-9479-7730BC5EFC35}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="22410" windowHeight="12255" activeTab="1" xr2:uid="{D4A46A4F-EA7B-486E-9479-7730BC5EFC35}"/>
   </bookViews>
   <sheets>
-    <sheet name="Data w Python" sheetId="2" r:id="rId1"/>
+    <sheet name="Data wo Python" sheetId="2" r:id="rId1"/>
     <sheet name="Data w-Python" sheetId="3" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlchart.v1.0" hidden="1">'Data w-Python'!$A$2:$A$103</definedName>
-    <definedName name="_xlchart.v1.1" hidden="1">'Data w-Python'!$B$1</definedName>
-    <definedName name="_xlchart.v1.2" hidden="1">'Data w-Python'!$B$2:$B$103</definedName>
+    <definedName name="_xlchart.v1.0" hidden="1">'Data wo Python'!$A$2:$A$100</definedName>
+    <definedName name="_xlchart.v1.1" hidden="1">'Data wo Python'!$B$1</definedName>
+    <definedName name="_xlchart.v1.10" hidden="1">'Data w-Python'!$B$1</definedName>
+    <definedName name="_xlchart.v1.11" hidden="1">'Data w-Python'!$B$2:$B$103</definedName>
+    <definedName name="_xlchart.v1.2" hidden="1">'Data wo Python'!$B$2:$B$100</definedName>
+    <definedName name="_xlchart.v1.3" hidden="1">'Data wo Python'!$A$2:$A$100</definedName>
+    <definedName name="_xlchart.v1.4" hidden="1">'Data wo Python'!$B$1</definedName>
+    <definedName name="_xlchart.v1.5" hidden="1">'Data wo Python'!$B$2:$B$100</definedName>
+    <definedName name="_xlchart.v1.6" hidden="1">'Data wo Python'!$A$2:$A$100</definedName>
+    <definedName name="_xlchart.v1.7" hidden="1">'Data wo Python'!$B$1</definedName>
+    <definedName name="_xlchart.v1.8" hidden="1">'Data wo Python'!$B$2:$B$100</definedName>
+    <definedName name="_xlchart.v1.9" hidden="1">'Data w-Python'!$A$2:$A$103</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -177,7 +186,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="&quot;$&quot;#,##0"/>
   </numFmts>
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -187,14 +196,6 @@
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Aptos Narrow"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Aptos Narrow"/>
@@ -235,9 +236,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -276,6 +277,141 @@
     <cx:title pos="t" align="ctr" overlay="0">
       <cx:tx>
         <cx:txData>
+          <cx:v>Income by Education Level</cx:v>
+        </cx:txData>
+      </cx:tx>
+      <cx:txPr>
+        <a:bodyPr spcFirstLastPara="1" vertOverflow="ellipsis" horzOverflow="overflow" wrap="square" lIns="0" tIns="0" rIns="0" bIns="0" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr" rtl="0">
+            <a:defRPr/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="en-US" sz="1400" b="0" i="0" u="none" strike="noStrike" baseline="0">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:sysClr>
+              </a:solidFill>
+              <a:latin typeface="Aptos Narrow" panose="02110004020202020204"/>
+            </a:rPr>
+            <a:t>Income by Education Level</a:t>
+          </a:r>
+        </a:p>
+      </cx:txPr>
+    </cx:title>
+    <cx:plotArea>
+      <cx:plotAreaRegion>
+        <cx:series layoutId="boxWhisker" uniqueId="{8C386E8C-7FE5-4822-86F9-F84F5CC77640}">
+          <cx:tx>
+            <cx:txData>
+              <cx:f>_xlchart.v1.1</cx:f>
+              <cx:v>Income</cx:v>
+            </cx:txData>
+          </cx:tx>
+          <cx:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1">
+                <a:lumMod val="20000"/>
+                <a:lumOff val="80000"/>
+              </a:schemeClr>
+            </a:solidFill>
+          </cx:spPr>
+          <cx:dataId val="0"/>
+          <cx:layoutPr>
+            <cx:visibility meanLine="0" meanMarker="1" nonoutliers="0" outliers="1"/>
+            <cx:statistics quartileMethod="exclusive"/>
+          </cx:layoutPr>
+        </cx:series>
+      </cx:plotAreaRegion>
+      <cx:axis id="0">
+        <cx:catScaling gapWidth="1"/>
+        <cx:title>
+          <cx:tx>
+            <cx:txData>
+              <cx:v>Education Level</cx:v>
+            </cx:txData>
+          </cx:tx>
+          <cx:txPr>
+            <a:bodyPr spcFirstLastPara="1" vertOverflow="ellipsis" horzOverflow="overflow" wrap="square" lIns="0" tIns="0" rIns="0" bIns="0" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr algn="ctr" rtl="0">
+                <a:defRPr/>
+              </a:pPr>
+              <a:r>
+                <a:rPr lang="en-US" sz="900" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                  <a:solidFill>
+                    <a:sysClr val="windowText" lastClr="000000">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:sysClr>
+                  </a:solidFill>
+                  <a:latin typeface="Aptos Narrow" panose="02110004020202020204"/>
+                </a:rPr>
+                <a:t>Education Level</a:t>
+              </a:r>
+            </a:p>
+          </cx:txPr>
+        </cx:title>
+        <cx:tickLabels/>
+      </cx:axis>
+      <cx:axis id="1">
+        <cx:valScaling/>
+        <cx:title>
+          <cx:tx>
+            <cx:txData>
+              <cx:v>Income</cx:v>
+            </cx:txData>
+          </cx:tx>
+          <cx:txPr>
+            <a:bodyPr spcFirstLastPara="1" vertOverflow="ellipsis" horzOverflow="overflow" wrap="square" lIns="0" tIns="0" rIns="0" bIns="0" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr algn="ctr" rtl="0">
+                <a:defRPr/>
+              </a:pPr>
+              <a:r>
+                <a:rPr lang="en-US" sz="900" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                  <a:solidFill>
+                    <a:sysClr val="windowText" lastClr="000000">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:sysClr>
+                  </a:solidFill>
+                  <a:latin typeface="Aptos Narrow" panose="02110004020202020204"/>
+                </a:rPr>
+                <a:t>Income</a:t>
+              </a:r>
+            </a:p>
+          </cx:txPr>
+        </cx:title>
+        <cx:majorGridlines/>
+        <cx:tickLabels/>
+      </cx:axis>
+    </cx:plotArea>
+  </cx:chart>
+</cx:chartSpace>
+</file>
+
+<file path=xl/charts/chartEx2.xml><?xml version="1.0" encoding="utf-8"?>
+<cx:chartSpace xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex">
+  <cx:chartData>
+    <cx:data id="0">
+      <cx:strDim type="cat">
+        <cx:f>_xlchart.v1.9</cx:f>
+      </cx:strDim>
+      <cx:numDim type="val">
+        <cx:f>_xlchart.v1.11</cx:f>
+      </cx:numDim>
+    </cx:data>
+  </cx:chartData>
+  <cx:chart>
+    <cx:title pos="t" align="ctr" overlay="0">
+      <cx:tx>
+        <cx:txData>
           <cx:v>Example Boxplot</cx:v>
         </cx:txData>
       </cx:tx>
@@ -306,7 +442,7 @@
         <cx:series layoutId="boxWhisker" uniqueId="{5BE5434A-FA91-4823-B861-F41391BF45A1}">
           <cx:tx>
             <cx:txData>
-              <cx:f>_xlchart.v1.1</cx:f>
+              <cx:f>_xlchart.v1.10</cx:f>
               <cx:v>Income</cx:v>
             </cx:txData>
           </cx:tx>
@@ -393,6 +529,46 @@
 </file>
 
 <file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="withinLinear" id="15">
   <a:schemeClr val="accent2"/>
 </cs:colorStyle>
@@ -913,20 +1089,618 @@
 </cs:chartStyle>
 </file>
 
+<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="406">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat">
+        <a:solidFill>
+          <a:srgbClr val="D9D9D9"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDash"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>38100</xdr:colOff>
-      <xdr:row>48</xdr:row>
-      <xdr:rowOff>28581</xdr:rowOff>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>57150</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>90487</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>1057275</xdr:colOff>
-      <xdr:row>62</xdr:row>
-      <xdr:rowOff>104781</xdr:rowOff>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>257175</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>166687</xdr:rowOff>
+    </xdr:to>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" Requires="cx1">
+        <xdr:graphicFrame macro="">
+          <xdr:nvGraphicFramePr>
+            <xdr:cNvPr id="2" name="Chart 1">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{07FD600E-B9CD-CB18-26CA-86271A89DB94}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvGraphicFramePr/>
+          </xdr:nvGraphicFramePr>
+          <xdr:xfrm>
+            <a:off x="0" y="0"/>
+            <a:ext cx="0" cy="0"/>
+          </xdr:xfrm>
+          <a:graphic>
+            <a:graphicData uri="http://schemas.microsoft.com/office/drawing/2014/chartex">
+              <cx:chart xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+            </a:graphicData>
+          </a:graphic>
+        </xdr:graphicFrame>
+      </mc:Choice>
+      <mc:Fallback>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="0" name=""/>
+            <xdr:cNvSpPr>
+              <a:spLocks noTextEdit="1"/>
+            </xdr:cNvSpPr>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="2733675" y="1042987"/>
+              <a:ext cx="4572000" cy="2743200"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:solidFill>
+              <a:prstClr val="white"/>
+            </a:solidFill>
+            <a:ln w="1">
+              <a:solidFill>
+                <a:prstClr val="green"/>
+              </a:solidFill>
+            </a:ln>
+          </xdr:spPr>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:r>
+                <a:rPr lang="en-US" sz="1100"/>
+                <a:t>This chart isn't available in your version of Excel.
+Editing this shape or saving this workbook into a different file format will permanently break the chart.</a:t>
+              </a:r>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>19050</xdr:colOff>
+      <xdr:row>44</xdr:row>
+      <xdr:rowOff>38106</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>3067050</xdr:colOff>
+      <xdr:row>58</xdr:row>
+      <xdr:rowOff>114306</xdr:rowOff>
     </xdr:to>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" Requires="cx1">
@@ -962,7 +1736,7 @@
           </xdr:nvSpPr>
           <xdr:spPr>
             <a:xfrm>
-              <a:off x="5829300" y="9172581"/>
+              <a:off x="4286250" y="8420106"/>
               <a:ext cx="4572000" cy="2743200"/>
             </a:xfrm>
             <a:prstGeom prst="rect">
@@ -1093,37 +1867,37 @@
     <v t="s">Income</v>
     <v>0</v>
     <v t="s">Masters Grad</v>
-    <v>190662.24716849695</v>
+    <v>117451.10316796124</v>
     <v>1</v>
     <v t="s">College Grad</v>
-    <v>63247.059186030354</v>
+    <v>110276.98288144985</v>
     <v>2</v>
     <v t="s">HS Grad</v>
-    <v>90623.720464182668</v>
+    <v>15682.454835622011</v>
     <v>3</v>
     <v t="s">Masters Grad</v>
-    <v>42553.184638763691</v>
+    <v>96550.65043315904</v>
     <v>4</v>
     <v t="s">College Grad</v>
-    <v>161483.24914861401</v>
+    <v>74221.810794267454</v>
     <v t="s">...</v>
     <v t="s">...</v>
     <v t="s">...</v>
     <v>97</v>
     <v t="s">College Grad</v>
-    <v>46222.868486788313</v>
+    <v>119276.29578594942</v>
     <v>98</v>
     <v t="s">HS Grad</v>
-    <v>71883.261252545024</v>
+    <v>4241.1880904666032</v>
     <v>99</v>
     <v t="s">Masters Grad</v>
-    <v>134685.32190138748</v>
+    <v>166389.68272549642</v>
     <v>100</v>
     <v t="s">College Grad</v>
-    <v>51773.777060828914</v>
+    <v>99422.816175699394</v>
     <v>101</v>
     <v t="s">HS Grad</v>
-    <v>113443.47361476079</v>
+    <v>33836.671630790552</v>
   </a>
   <a r="2">
     <v>1280</v>
@@ -1146,13 +1920,13 @@
     <v>&lt;class 'pandas.core.frame.DataFrame'&gt;</v>
     <v>DataFrame</v>
     <v xml:space="preserve">        Education         Income
-0    Masters Grad  190662.247168
-1    College Grad   63247.059186
-2         HS Grad   90623.720464
-3    Masters Grad   42553.184639
-4    College Grad  161483.249149
+0    Masters Grad  117451.103168
+1    College Grad  110276.982881
+2         HS Grad   15682.454836
+3    Masters Grad   96550.650433
+4    College Grad   74221.810794
 ..            ...            ...
-97   College Grad   4...</v>
+97   College Grad  11...</v>
     <v>1</v>
     <v>2</v>
   </rv>
@@ -1184,7 +1958,7 @@
   <rv s="2">
     <v>&lt;class 'PIL.PngImagePlugin.PngImageFile'&gt;</v>
     <v>PngImageFile</v>
-    <v>&lt;PIL.PngImagePlugin.PngImageFile image mode=RGBA size=1280x960 at 0x7FB02D5594F0&gt;</v>
+    <v>&lt;PIL.PngImagePlugin.PngImageFile image mode=RGBA size=1280x960 at 0x7F8917D18110&gt;</v>
     <v>7</v>
     <v>2</v>
   </rv>
@@ -1626,7 +2400,7 @@
   <dimension ref="A1:H100"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="J2" sqref="J2"/>
+      <selection activeCell="M14" sqref="M14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1666,11 +2440,11 @@
       </c>
       <c r="B2" s="1">
         <f t="shared" ref="B2:B33" ca="1" si="0">IF(NORMINV(C2,(VLOOKUP(A2,$F$2:$H$4,2, FALSE)),VLOOKUP(A2,$F$2:$H$4,3, FALSE))&lt;=0,0,NORMINV(C2,(VLOOKUP(A2,$F$2:$H$4,2, FALSE)),VLOOKUP(A2,$F$2:$H$4,3, FALSE)))</f>
-        <v>118540.98802920338</v>
+        <v>149653.49622793533</v>
       </c>
       <c r="C2">
         <f ca="1">RAND()</f>
-        <v>0.40936441527004963</v>
+        <v>0.65286608165065396</v>
       </c>
       <c r="F2" t="s">
         <v>1</v>
@@ -1688,11 +2462,11 @@
       </c>
       <c r="B3" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>100141.32634838394</v>
+        <v>17829.928149391693</v>
       </c>
       <c r="C3">
         <f t="shared" ref="C3:C66" ca="1" si="1">RAND()</f>
-        <v>0.60007187948724572</v>
+        <v>3.5595921378306583E-2</v>
       </c>
       <c r="F3" t="s">
         <v>2</v>
@@ -1710,11 +2484,11 @@
       </c>
       <c r="B4" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>87175.531523237965</v>
+        <v>105734.36786798327</v>
       </c>
       <c r="C4">
         <f t="shared" ca="1" si="1"/>
-        <v>0.63350919452057031</v>
+        <v>0.73456633839472729</v>
       </c>
       <c r="F4" t="s">
         <v>3</v>
@@ -1732,11 +2506,11 @@
       </c>
       <c r="B5" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>182342.37071791757</v>
+        <v>21222.018549268076</v>
       </c>
       <c r="C5">
         <f t="shared" ca="1" si="1"/>
-        <v>0.85241502087227916</v>
+        <v>1.4794102413305144E-2</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
@@ -1745,11 +2519,11 @@
       </c>
       <c r="B6" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>56285.286456611757</v>
+        <v>116906.12654980042</v>
       </c>
       <c r="C6">
         <f t="shared" ca="1" si="1"/>
-        <v>0.19965118117426739</v>
+        <v>0.74941601454647777</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.25">
@@ -1758,11 +2532,11 @@
       </c>
       <c r="B7" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>66546.44905550986</v>
+        <v>45473.581013199459</v>
       </c>
       <c r="C7">
         <f t="shared" ca="1" si="1"/>
-        <v>0.50949054946970529</v>
+        <v>0.38193357373235448</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.25">
@@ -1771,11 +2545,11 @@
       </c>
       <c r="B8" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>122066.25722963011</v>
+        <v>92217.167053421406</v>
       </c>
       <c r="C8">
         <f t="shared" ca="1" si="1"/>
-        <v>0.43696252482011577</v>
+        <v>0.22492753798220277</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.25">
@@ -1784,11 +2558,11 @@
       </c>
       <c r="B9" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>95524.970864896619</v>
+        <v>103023.13580755041</v>
       </c>
       <c r="C9">
         <f t="shared" ca="1" si="1"/>
-        <v>0.55492889817578717</v>
+        <v>0.62762831978048894</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.25">
@@ -1797,11 +2571,11 @@
       </c>
       <c r="B10" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>82721.290345137895</v>
+        <v>108805.22368602498</v>
       </c>
       <c r="C10">
         <f t="shared" ca="1" si="1"/>
-        <v>0.607433188411725</v>
+        <v>0.7498209840895137</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.25">
@@ -1810,11 +2584,11 @@
       </c>
       <c r="B11" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>150926.52137533546</v>
+        <v>38652.157375756433</v>
       </c>
       <c r="C11">
         <f t="shared" ca="1" si="1"/>
-        <v>0.66222032767866157</v>
+        <v>3.3853128548459677E-2</v>
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.25">
@@ -1823,11 +2597,11 @@
       </c>
       <c r="B12" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>133338.85490519507</v>
+        <v>66755.183299125594</v>
       </c>
       <c r="C12">
         <f t="shared" ca="1" si="1"/>
-        <v>0.8607003745759475</v>
+        <v>0.28057964938334201</v>
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.25">
@@ -1836,11 +2610,11 @@
       </c>
       <c r="B13" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>18259.684264394346</v>
+        <v>126115.87273654522</v>
       </c>
       <c r="C13">
         <f t="shared" ca="1" si="1"/>
-        <v>0.23604526621663047</v>
+        <v>0.82645384172379432</v>
       </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.25">
@@ -1849,11 +2623,11 @@
       </c>
       <c r="B14" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>114885.1083878809</v>
+        <v>211007.44307435863</v>
       </c>
       <c r="C14">
         <f t="shared" ca="1" si="1"/>
-        <v>0.38121251535427947</v>
+        <v>0.94739984824604295</v>
       </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.25">
@@ -1862,11 +2636,11 @@
       </c>
       <c r="B15" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>89698.97280335032</v>
+        <v>177111.95813531365</v>
       </c>
       <c r="C15">
         <f t="shared" ca="1" si="1"/>
-        <v>0.49699771643215429</v>
+        <v>0.98528949606831173</v>
       </c>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.25">
@@ -1875,11 +2649,11 @@
       </c>
       <c r="B16" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>84697.537376372755</v>
+        <v>32804.484022647739</v>
       </c>
       <c r="C16">
         <f t="shared" ca="1" si="1"/>
-        <v>0.61906994372116564</v>
+        <v>0.31018866966962977</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.25">
@@ -1888,11 +2662,11 @@
       </c>
       <c r="B17" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>144851.89233973753</v>
+        <v>174620.8377879092</v>
       </c>
       <c r="C17">
         <f t="shared" ca="1" si="1"/>
-        <v>0.6167811925888077</v>
+        <v>0.81391520333529332</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.25">
@@ -1901,11 +2675,11 @@
       </c>
       <c r="B18" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>94301.832143950247</v>
+        <v>94868.468801276904</v>
       </c>
       <c r="C18">
         <f t="shared" ca="1" si="1"/>
-        <v>0.54282200500654876</v>
+        <v>0.54843633449654394</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.25">
@@ -1914,11 +2688,11 @@
       </c>
       <c r="B19" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>71061.297852218224</v>
+        <v>66242.772011236142</v>
       </c>
       <c r="C19">
         <f t="shared" ca="1" si="1"/>
-        <v>0.53714781584995919</v>
+        <v>0.50762713992176223</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.25">
@@ -1927,11 +2701,11 @@
       </c>
       <c r="B20" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>97949.512255894282</v>
+        <v>145136.93495439368</v>
       </c>
       <c r="C20">
         <f t="shared" ca="1" si="1"/>
-        <v>0.26075817257684664</v>
+        <v>0.61895549837552688</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.25">
@@ -1940,11 +2714,11 @@
       </c>
       <c r="B21" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>100789.37721672635</v>
+        <v>36880.256311194753</v>
       </c>
       <c r="C21">
         <f t="shared" ca="1" si="1"/>
-        <v>0.60631771483460228</v>
+        <v>9.2090111887275228E-2</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.25">
@@ -1953,11 +2727,11 @@
       </c>
       <c r="B22" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>81591.955134002856</v>
+        <v>84350.724591420047</v>
       </c>
       <c r="C22">
         <f t="shared" ca="1" si="1"/>
-        <v>0.60073918146377192</v>
+        <v>0.61703524698300594</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.25">
@@ -1966,11 +2740,11 @@
       </c>
       <c r="B23" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>153363.09221807451</v>
+        <v>133443.78422704784</v>
       </c>
       <c r="C23">
         <f t="shared" ca="1" si="1"/>
-        <v>0.67984372423286199</v>
+        <v>0.52745571326451546</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.25">
@@ -1979,11 +2753,11 @@
       </c>
       <c r="B24" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>126830.53780094154</v>
+        <v>134921.46516953211</v>
       </c>
       <c r="C24">
         <f t="shared" ca="1" si="1"/>
-        <v>0.82141302805553917</v>
+        <v>0.86928903096067545</v>
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.25">
@@ -1992,11 +2766,11 @@
       </c>
       <c r="B25" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>16844.472058810723</v>
+        <v>0</v>
       </c>
       <c r="C25">
         <f t="shared" ca="1" si="1"/>
-        <v>0.22939090091131198</v>
+        <v>0.1440511005125128</v>
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.25">
@@ -2005,11 +2779,11 @@
       </c>
       <c r="B26" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>142568.906720959</v>
+        <v>67998.103194889816</v>
       </c>
       <c r="C26">
         <f t="shared" ca="1" si="1"/>
-        <v>0.59923911436775101</v>
+        <v>0.10748068144000844</v>
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.25">
@@ -2018,11 +2792,11 @@
       </c>
       <c r="B27" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>82193.002057662932</v>
+        <v>0</v>
       </c>
       <c r="C27">
         <f t="shared" ca="1" si="1"/>
-        <v>0.42262799503292381</v>
+        <v>8.589374300053465E-3</v>
       </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.25">
@@ -2031,11 +2805,11 @@
       </c>
       <c r="B28" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>72093.732125631781</v>
+        <v>133155.47775840494</v>
       </c>
       <c r="C28">
         <f t="shared" ca="1" si="1"/>
-        <v>0.54345203107338047</v>
+        <v>0.85280639647054624</v>
       </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.25">
@@ -2044,11 +2818,11 @@
       </c>
       <c r="B29" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>88991.644273439946</v>
+        <v>162140.22096785251</v>
       </c>
       <c r="C29">
         <f t="shared" ca="1" si="1"/>
-        <v>0.20606042313217887</v>
+        <v>0.73982449241611581</v>
       </c>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.25">
@@ -2057,11 +2831,11 @@
       </c>
       <c r="B30" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>145883.0982132401</v>
+        <v>67295.97239069661</v>
       </c>
       <c r="C30">
         <f t="shared" ca="1" si="1"/>
-        <v>0.91880485975877291</v>
+        <v>0.28515306918192451</v>
       </c>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.25">
@@ -2070,11 +2844,11 @@
       </c>
       <c r="B31" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>57272.79648528203</v>
+        <v>32658.250522595725</v>
       </c>
       <c r="C31">
         <f t="shared" ca="1" si="1"/>
-        <v>0.45268519211584257</v>
+        <v>0.30939520628894202</v>
       </c>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.25">
@@ -2083,11 +2857,11 @@
       </c>
       <c r="B32" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>140259.89564971419</v>
+        <v>133777.66493594984</v>
       </c>
       <c r="C32">
         <f t="shared" ca="1" si="1"/>
-        <v>0.5812912500288423</v>
+        <v>0.53011275378445843</v>
       </c>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.25">
@@ -2096,11 +2870,11 @@
       </c>
       <c r="B33" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>110114.22164515108</v>
+        <v>125071.9084917841</v>
       </c>
       <c r="C33">
         <f t="shared" ca="1" si="1"/>
-        <v>0.69246707957594</v>
+        <v>0.80970173904304032</v>
       </c>
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.25">
@@ -2109,11 +2883,11 @@
       </c>
       <c r="B34" s="1">
         <f t="shared" ref="B34:B65" ca="1" si="2">IF(NORMINV(C34,(VLOOKUP(A34,$F$2:$H$4,2, FALSE)),VLOOKUP(A34,$F$2:$H$4,3, FALSE))&lt;=0,0,NORMINV(C34,(VLOOKUP(A34,$F$2:$H$4,2, FALSE)),VLOOKUP(A34,$F$2:$H$4,3, FALSE)))</f>
-        <v>58082.297380765369</v>
+        <v>55638.703387431502</v>
       </c>
       <c r="C34">
         <f t="shared" ca="1" si="1"/>
-        <v>0.45762210558757366</v>
+        <v>0.44274235885740565</v>
       </c>
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.25">
@@ -2122,11 +2896,11 @@
       </c>
       <c r="B35" s="1">
         <f t="shared" ca="1" si="2"/>
-        <v>143271.80402026387</v>
+        <v>68742.915649742019</v>
       </c>
       <c r="C35">
         <f t="shared" ca="1" si="1"/>
-        <v>0.6046632277390217</v>
+        <v>0.11026092042223146</v>
       </c>
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.25">
@@ -2135,11 +2909,11 @@
       </c>
       <c r="B36" s="1">
         <f t="shared" ca="1" si="2"/>
-        <v>71053.646026367496</v>
+        <v>75117.12251078496</v>
       </c>
       <c r="C36">
         <f t="shared" ca="1" si="1"/>
-        <v>0.31787160123160407</v>
+        <v>0.35491964481734595</v>
       </c>
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.25">
@@ -2148,11 +2922,11 @@
       </c>
       <c r="B37" s="1">
         <f t="shared" ca="1" si="2"/>
-        <v>0</v>
+        <v>726.07050638499641</v>
       </c>
       <c r="C37">
         <f t="shared" ca="1" si="1"/>
-        <v>9.7659657232753383E-2</v>
+        <v>0.1613732390105822</v>
       </c>
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.25">
@@ -2161,11 +2935,11 @@
       </c>
       <c r="B38" s="1">
         <f t="shared" ca="1" si="2"/>
-        <v>151330.32099688146</v>
+        <v>185666.79637730014</v>
       </c>
       <c r="C38">
         <f t="shared" ca="1" si="1"/>
-        <v>0.66516698955217302</v>
+        <v>0.86721790915814156</v>
       </c>
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.25">
@@ -2174,11 +2948,11 @@
       </c>
       <c r="B39" s="1">
         <f t="shared" ca="1" si="2"/>
-        <v>65044.501499873106</v>
+        <v>76909.022918332426</v>
       </c>
       <c r="C39">
         <f t="shared" ca="1" si="1"/>
-        <v>0.26635074731585806</v>
+        <v>0.37173016631670674</v>
       </c>
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.25">
@@ -2187,11 +2961,11 @@
       </c>
       <c r="B40" s="1">
         <f t="shared" ca="1" si="2"/>
-        <v>53467.586708498391</v>
+        <v>19493.34951049705</v>
       </c>
       <c r="C40">
         <f t="shared" ca="1" si="1"/>
-        <v>0.42958856491757003</v>
+        <v>0.24193170503631845</v>
       </c>
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.25">
@@ -2200,11 +2974,11 @@
       </c>
       <c r="B41" s="1">
         <f t="shared" ca="1" si="2"/>
-        <v>40793.280758112116</v>
+        <v>198658.28896454757</v>
       </c>
       <c r="C41">
         <f t="shared" ca="1" si="1"/>
-        <v>3.720091557975469E-2</v>
+        <v>0.91514959225574333</v>
       </c>
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.25">
@@ -2213,11 +2987,11 @@
       </c>
       <c r="B42" s="1">
         <f t="shared" ca="1" si="2"/>
-        <v>91366.748914633965</v>
+        <v>64022.458323568688</v>
       </c>
       <c r="C42">
         <f t="shared" ca="1" si="1"/>
-        <v>0.51362869624609064</v>
+        <v>0.25802747933327153</v>
       </c>
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.25">
@@ -2226,11 +3000,11 @@
       </c>
       <c r="B43" s="1">
         <f t="shared" ca="1" si="2"/>
-        <v>76470.601068872405</v>
+        <v>0</v>
       </c>
       <c r="C43">
         <f t="shared" ca="1" si="1"/>
-        <v>0.57003795093094545</v>
+        <v>0.14526269683129922</v>
       </c>
     </row>
     <row r="44" spans="1:3" x14ac:dyDescent="0.25">
@@ -2239,11 +3013,11 @@
       </c>
       <c r="B44" s="1">
         <f t="shared" ca="1" si="2"/>
-        <v>73892.044428330701</v>
+        <v>119345.77667218805</v>
       </c>
       <c r="C44">
         <f t="shared" ca="1" si="1"/>
-        <v>0.13089739715602433</v>
+        <v>0.41563054015811818</v>
       </c>
     </row>
     <row r="45" spans="1:3" x14ac:dyDescent="0.25">
@@ -2252,11 +3026,11 @@
       </c>
       <c r="B45" s="1">
         <f t="shared" ca="1" si="2"/>
-        <v>97648.043953603541</v>
+        <v>52760.866932694007</v>
       </c>
       <c r="C45">
         <f t="shared" ca="1" si="1"/>
-        <v>0.57581597862601241</v>
+        <v>0.17593238772216657</v>
       </c>
     </row>
     <row r="46" spans="1:3" x14ac:dyDescent="0.25">
@@ -2265,11 +3039,11 @@
       </c>
       <c r="B46" s="1">
         <f t="shared" ca="1" si="2"/>
-        <v>77288.101710105722</v>
+        <v>15548.279608773759</v>
       </c>
       <c r="C46">
         <f t="shared" ca="1" si="1"/>
-        <v>0.57497229150305862</v>
+        <v>0.22338955208125466</v>
       </c>
     </row>
     <row r="47" spans="1:3" x14ac:dyDescent="0.25">
@@ -2278,11 +3052,11 @@
       </c>
       <c r="B47" s="1">
         <f t="shared" ca="1" si="2"/>
-        <v>114005.40688570627</v>
+        <v>98952.991371997821</v>
       </c>
       <c r="C47">
         <f t="shared" ca="1" si="1"/>
-        <v>0.37452515348045723</v>
+        <v>0.26731949397177257</v>
       </c>
     </row>
     <row r="48" spans="1:3" x14ac:dyDescent="0.25">
@@ -2291,11 +3065,11 @@
       </c>
       <c r="B48" s="1">
         <f t="shared" ca="1" si="2"/>
-        <v>141341.8518038544</v>
+        <v>43803.843696968084</v>
       </c>
       <c r="C48">
         <f t="shared" ca="1" si="1"/>
-        <v>0.90034962440562738</v>
+        <v>0.12406488953490136</v>
       </c>
     </row>
     <row r="49" spans="1:3" x14ac:dyDescent="0.25">
@@ -2304,11 +3078,11 @@
       </c>
       <c r="B49" s="1">
         <f t="shared" ca="1" si="2"/>
-        <v>18722.118774465234</v>
+        <v>17136.316996962742</v>
       </c>
       <c r="C49">
         <f t="shared" ca="1" si="1"/>
-        <v>0.23824248065535225</v>
+        <v>0.23075449589506036</v>
       </c>
     </row>
     <row r="50" spans="1:3" x14ac:dyDescent="0.25">
@@ -2317,11 +3091,11 @@
       </c>
       <c r="B50" s="1">
         <f t="shared" ca="1" si="2"/>
-        <v>108883.97623516739</v>
+        <v>208459.02031876933</v>
       </c>
       <c r="C50">
         <f t="shared" ca="1" si="1"/>
-        <v>0.33639555749262928</v>
+        <v>0.94169704580540925</v>
       </c>
     </row>
     <row r="51" spans="1:3" x14ac:dyDescent="0.25">
@@ -2330,11 +3104,11 @@
       </c>
       <c r="B51" s="1">
         <f t="shared" ca="1" si="2"/>
-        <v>73952.847823454649</v>
+        <v>99233.893106562464</v>
       </c>
       <c r="C51">
         <f t="shared" ca="1" si="1"/>
-        <v>0.34414424235545005</v>
+        <v>0.59128329404411417</v>
       </c>
     </row>
     <row r="52" spans="1:3" x14ac:dyDescent="0.25">
@@ -2343,11 +3117,11 @@
       </c>
       <c r="B52" s="1">
         <f t="shared" ca="1" si="2"/>
-        <v>116679.70949742565</v>
+        <v>150641.32460269501</v>
       </c>
       <c r="C52">
         <f t="shared" ca="1" si="1"/>
-        <v>0.78671432143474851</v>
+        <v>0.90617431410232385</v>
       </c>
     </row>
     <row r="53" spans="1:3" x14ac:dyDescent="0.25">
@@ -2356,11 +3130,11 @@
       </c>
       <c r="B53" s="1">
         <f t="shared" ca="1" si="2"/>
-        <v>158595.21893612348</v>
+        <v>75273.766459828825</v>
       </c>
       <c r="C53">
         <f t="shared" ca="1" si="1"/>
-        <v>0.71630662129868061</v>
+        <v>0.13686246663958834</v>
       </c>
     </row>
     <row r="54" spans="1:3" x14ac:dyDescent="0.25">
@@ -2369,11 +3143,11 @@
       </c>
       <c r="B54" s="1">
         <f t="shared" ca="1" si="2"/>
-        <v>101359.36618200323</v>
+        <v>150521.23661213886</v>
       </c>
       <c r="C54">
         <f t="shared" ca="1" si="1"/>
-        <v>0.61178873810330259</v>
+        <v>0.93486409690107586</v>
       </c>
     </row>
     <row r="55" spans="1:3" x14ac:dyDescent="0.25">
@@ -2382,11 +3156,11 @@
       </c>
       <c r="B55" s="1">
         <f t="shared" ca="1" si="2"/>
-        <v>159730.51588313479</v>
+        <v>35392.535567858024</v>
       </c>
       <c r="C55">
         <f t="shared" ca="1" si="1"/>
-        <v>0.92749597408731099</v>
+        <v>0.32437498057533543</v>
       </c>
     </row>
     <row r="56" spans="1:3" x14ac:dyDescent="0.25">
@@ -2395,11 +3169,11 @@
       </c>
       <c r="B56" s="1">
         <f t="shared" ca="1" si="2"/>
-        <v>63667.43717678549</v>
+        <v>296027.46349233238</v>
       </c>
       <c r="C56">
         <f t="shared" ca="1" si="1"/>
-        <v>9.2312036022842436E-2</v>
+        <v>0.99955079750035836</v>
       </c>
     </row>
     <row r="57" spans="1:3" x14ac:dyDescent="0.25">
@@ -2408,11 +3182,11 @@
       </c>
       <c r="B57" s="1">
         <f t="shared" ca="1" si="2"/>
-        <v>72670.398671579256</v>
+        <v>79440.539808610221</v>
       </c>
       <c r="C57">
         <f t="shared" ca="1" si="1"/>
-        <v>0.33242019904232356</v>
+        <v>0.39589515881308024</v>
       </c>
     </row>
     <row r="58" spans="1:3" x14ac:dyDescent="0.25">
@@ -2421,11 +3195,11 @@
       </c>
       <c r="B58" s="1">
         <f t="shared" ca="1" si="2"/>
-        <v>14602.268888144754</v>
+        <v>62263.112133304639</v>
       </c>
       <c r="C58">
         <f t="shared" ca="1" si="1"/>
-        <v>0.21906652167135721</v>
+        <v>0.48320711163482244</v>
       </c>
     </row>
     <row r="59" spans="1:3" x14ac:dyDescent="0.25">
@@ -2434,11 +3208,11 @@
       </c>
       <c r="B59" s="1">
         <f t="shared" ca="1" si="2"/>
-        <v>166660.33502211183</v>
+        <v>92278.923840854637</v>
       </c>
       <c r="C59">
         <f t="shared" ca="1" si="1"/>
-        <v>0.76828381536610379</v>
+        <v>0.22529807582744554</v>
       </c>
     </row>
     <row r="60" spans="1:3" x14ac:dyDescent="0.25">
@@ -2447,11 +3221,11 @@
       </c>
       <c r="B60" s="1">
         <f t="shared" ca="1" si="2"/>
-        <v>96025.198449428921</v>
+        <v>26433.892346956178</v>
       </c>
       <c r="C60">
         <f t="shared" ca="1" si="1"/>
-        <v>0.55986618729972426</v>
+        <v>5.6012962115340015E-2</v>
       </c>
     </row>
     <row r="61" spans="1:3" x14ac:dyDescent="0.25">
@@ -2460,11 +3234,11 @@
       </c>
       <c r="B61" s="1">
         <f t="shared" ca="1" si="2"/>
-        <v>103041.88389342083</v>
+        <v>0</v>
       </c>
       <c r="C61">
         <f t="shared" ca="1" si="1"/>
-        <v>0.72081346350169218</v>
+        <v>0.14729847607813162</v>
       </c>
     </row>
     <row r="62" spans="1:3" x14ac:dyDescent="0.25">
@@ -2473,11 +3247,11 @@
       </c>
       <c r="B62" s="1">
         <f t="shared" ca="1" si="2"/>
-        <v>60596.542503893506</v>
+        <v>57232.966279654589</v>
       </c>
       <c r="C62">
         <f t="shared" ca="1" si="1"/>
-        <v>8.2557994766906062E-2</v>
+        <v>7.2787485732173973E-2</v>
       </c>
     </row>
     <row r="63" spans="1:3" x14ac:dyDescent="0.25">
@@ -2486,11 +3260,11 @@
       </c>
       <c r="B63" s="1">
         <f t="shared" ca="1" si="2"/>
-        <v>86305.992590268521</v>
+        <v>77002.515863030698</v>
       </c>
       <c r="C63">
         <f t="shared" ca="1" si="1"/>
-        <v>0.46320990831745112</v>
+        <v>0.37261433740159899</v>
       </c>
     </row>
     <row r="64" spans="1:3" x14ac:dyDescent="0.25">
@@ -2499,11 +3273,11 @@
       </c>
       <c r="B64" s="1">
         <f t="shared" ca="1" si="2"/>
-        <v>0</v>
+        <v>87214.866140256723</v>
       </c>
       <c r="C64">
         <f t="shared" ca="1" si="1"/>
-        <v>1.9663489962230662E-2</v>
+        <v>0.6337369415284001</v>
       </c>
     </row>
     <row r="65" spans="1:3" x14ac:dyDescent="0.25">
@@ -2512,11 +3286,11 @@
       </c>
       <c r="B65" s="1">
         <f t="shared" ca="1" si="2"/>
-        <v>131805.74715817694</v>
+        <v>77623.697597539431</v>
       </c>
       <c r="C65">
         <f t="shared" ca="1" si="1"/>
-        <v>0.51440464641025363</v>
+        <v>0.14742851246925104</v>
       </c>
     </row>
     <row r="66" spans="1:3" x14ac:dyDescent="0.25">
@@ -2525,11 +3299,11 @@
       </c>
       <c r="B66" s="1">
         <f t="shared" ref="B66:B97" ca="1" si="3">IF(NORMINV(C66,(VLOOKUP(A66,$F$2:$H$4,2, FALSE)),VLOOKUP(A66,$F$2:$H$4,3, FALSE))&lt;=0,0,NORMINV(C66,(VLOOKUP(A66,$F$2:$H$4,2, FALSE)),VLOOKUP(A66,$F$2:$H$4,3, FALSE)))</f>
-        <v>79789.114745156767</v>
+        <v>170831.25851382437</v>
       </c>
       <c r="C66">
         <f t="shared" ca="1" si="1"/>
-        <v>0.39925646150053273</v>
+        <v>0.97834880371428812</v>
       </c>
     </row>
     <row r="67" spans="1:3" x14ac:dyDescent="0.25">
@@ -2538,11 +3312,11 @@
       </c>
       <c r="B67" s="1">
         <f t="shared" ca="1" si="3"/>
-        <v>116545.76624006634</v>
+        <v>28934.338536805379</v>
       </c>
       <c r="C67">
         <f t="shared" ref="C67:C100" ca="1" si="4">RAND()</f>
-        <v>0.78611452266019155</v>
+        <v>0.28949646693282693</v>
       </c>
     </row>
     <row r="68" spans="1:3" x14ac:dyDescent="0.25">
@@ -2551,11 +3325,11 @@
       </c>
       <c r="B68" s="1">
         <f t="shared" ca="1" si="3"/>
-        <v>232170.32524422384</v>
+        <v>106159.19354798537</v>
       </c>
       <c r="C68">
         <f t="shared" ca="1" si="4"/>
-        <v>0.97949389296088585</v>
+        <v>0.31674652970600947</v>
       </c>
     </row>
     <row r="69" spans="1:3" x14ac:dyDescent="0.25">
@@ -2564,11 +3338,11 @@
       </c>
       <c r="B69" s="1">
         <f t="shared" ca="1" si="3"/>
-        <v>47448.210779300905</v>
+        <v>77854.725983056036</v>
       </c>
       <c r="C69">
         <f t="shared" ca="1" si="4"/>
-        <v>0.14371084949365143</v>
+        <v>0.38070419167562086</v>
       </c>
     </row>
     <row r="70" spans="1:3" x14ac:dyDescent="0.25">
@@ -2577,11 +3351,11 @@
       </c>
       <c r="B70" s="1">
         <f t="shared" ca="1" si="3"/>
-        <v>22664.167532312807</v>
+        <v>185039.20069963869</v>
       </c>
       <c r="C70">
         <f t="shared" ca="1" si="4"/>
-        <v>0.25741980906822037</v>
+        <v>0.96760881196126469</v>
       </c>
     </row>
     <row r="71" spans="1:3" x14ac:dyDescent="0.25">
@@ -2590,11 +3364,11 @@
       </c>
       <c r="B71" s="1">
         <f t="shared" ca="1" si="3"/>
-        <v>89824.0942606678</v>
+        <v>92290.26456941232</v>
       </c>
       <c r="C71">
         <f t="shared" ca="1" si="4"/>
-        <v>0.21083766542162763</v>
+        <v>0.22536615721841946</v>
       </c>
     </row>
     <row r="72" spans="1:3" x14ac:dyDescent="0.25">
@@ -2603,11 +3377,11 @@
       </c>
       <c r="B72" s="1">
         <f t="shared" ca="1" si="3"/>
-        <v>48989.321148655858</v>
+        <v>101782.30226441227</v>
       </c>
       <c r="C72">
         <f t="shared" ca="1" si="4"/>
-        <v>0.15261861786243269</v>
+        <v>0.61583405541377012</v>
       </c>
     </row>
     <row r="73" spans="1:3" x14ac:dyDescent="0.25">
@@ -2616,11 +3390,11 @@
       </c>
       <c r="B73" s="1">
         <f t="shared" ca="1" si="3"/>
-        <v>128467.67832801945</v>
+        <v>8103.4637319665562</v>
       </c>
       <c r="C73">
         <f t="shared" ca="1" si="4"/>
-        <v>0.83557325437480334</v>
+        <v>0.19069682669808752</v>
       </c>
     </row>
     <row r="74" spans="1:3" x14ac:dyDescent="0.25">
@@ -2629,11 +3403,11 @@
       </c>
       <c r="B74" s="1">
         <f t="shared" ca="1" si="3"/>
-        <v>51672.06474015089</v>
+        <v>222566.23028665938</v>
       </c>
       <c r="C74">
         <f t="shared" ca="1" si="4"/>
-        <v>5.8608938283390088E-2</v>
+        <v>0.96793856585736815</v>
       </c>
     </row>
     <row r="75" spans="1:3" x14ac:dyDescent="0.25">
@@ -2642,11 +3416,11 @@
       </c>
       <c r="B75" s="1">
         <f t="shared" ca="1" si="3"/>
-        <v>90483.619766937976</v>
+        <v>87081.471360188676</v>
       </c>
       <c r="C75">
         <f t="shared" ca="1" si="4"/>
-        <v>0.50482329180494423</v>
+        <v>0.47091769442178266</v>
       </c>
     </row>
     <row r="76" spans="1:3" x14ac:dyDescent="0.25">
@@ -2655,11 +3429,11 @@
       </c>
       <c r="B76" s="1">
         <f t="shared" ca="1" si="3"/>
-        <v>2483.8289258518635</v>
+        <v>53038.593688915571</v>
       </c>
       <c r="C76">
         <f t="shared" ca="1" si="4"/>
-        <v>0.16807824264908888</v>
+        <v>0.42699824102178385</v>
       </c>
     </row>
     <row r="77" spans="1:3" x14ac:dyDescent="0.25">
@@ -2668,11 +3442,11 @@
       </c>
       <c r="B77" s="1">
         <f t="shared" ca="1" si="3"/>
-        <v>137802.60878422472</v>
+        <v>105623.7874024382</v>
       </c>
       <c r="C77">
         <f t="shared" ca="1" si="4"/>
-        <v>0.5620040526489527</v>
+        <v>0.31294343033743999</v>
       </c>
     </row>
     <row r="78" spans="1:3" x14ac:dyDescent="0.25">
@@ -2681,11 +3455,11 @@
       </c>
       <c r="B78" s="1">
         <f t="shared" ca="1" si="3"/>
-        <v>115762.78895744155</v>
+        <v>89466.607675382489</v>
       </c>
       <c r="C78">
         <f t="shared" ca="1" si="4"/>
-        <v>0.74023488898820178</v>
+        <v>0.49468033889663732</v>
       </c>
     </row>
     <row r="79" spans="1:3" x14ac:dyDescent="0.25">
@@ -2694,11 +3468,11 @@
       </c>
       <c r="B79" s="1">
         <f t="shared" ca="1" si="3"/>
-        <v>105368.888808765</v>
+        <v>0</v>
       </c>
       <c r="C79">
         <f t="shared" ca="1" si="4"/>
-        <v>0.7327198701899208</v>
+        <v>8.9137312727937235E-2</v>
       </c>
     </row>
     <row r="80" spans="1:3" x14ac:dyDescent="0.25">
@@ -2707,11 +3481,11 @@
       </c>
       <c r="B80" s="1">
         <f t="shared" ca="1" si="3"/>
-        <v>139566.51216222229</v>
+        <v>219338.44641357841</v>
       </c>
       <c r="C80">
         <f t="shared" ca="1" si="4"/>
-        <v>0.57586656596764207</v>
+        <v>0.96301257836418275</v>
       </c>
     </row>
     <row r="81" spans="1:3" x14ac:dyDescent="0.25">
@@ -2720,11 +3494,11 @@
       </c>
       <c r="B81" s="1">
         <f t="shared" ca="1" si="3"/>
-        <v>58240.747623382988</v>
+        <v>116822.73479398474</v>
       </c>
       <c r="C81">
         <f t="shared" ca="1" si="4"/>
-        <v>0.21360315617338399</v>
+        <v>0.74875223098509924</v>
       </c>
     </row>
     <row r="82" spans="1:3" x14ac:dyDescent="0.25">
@@ -2733,11 +3507,11 @@
       </c>
       <c r="B82" s="1">
         <f t="shared" ca="1" si="3"/>
-        <v>67900.639162097505</v>
+        <v>40116.647171126082</v>
       </c>
       <c r="C82">
         <f t="shared" ca="1" si="4"/>
-        <v>0.51779697914063383</v>
+        <v>0.35092631428738386</v>
       </c>
     </row>
     <row r="83" spans="1:3" x14ac:dyDescent="0.25">
@@ -2746,11 +3520,11 @@
       </c>
       <c r="B83" s="1">
         <f t="shared" ca="1" si="3"/>
-        <v>223972.72986308829</v>
+        <v>214956.20729079717</v>
       </c>
       <c r="C83">
         <f t="shared" ca="1" si="4"/>
-        <v>0.96990877629253391</v>
+        <v>0.95535210261869219</v>
       </c>
     </row>
     <row r="84" spans="1:3" x14ac:dyDescent="0.25">
@@ -2759,11 +3533,11 @@
       </c>
       <c r="B84" s="1">
         <f t="shared" ca="1" si="3"/>
-        <v>13932.181821742968</v>
+        <v>73889.472782362878</v>
       </c>
       <c r="C84">
         <f t="shared" ca="1" si="4"/>
-        <v>2.860549023747605E-2</v>
+        <v>0.34356122498846942</v>
       </c>
     </row>
     <row r="85" spans="1:3" x14ac:dyDescent="0.25">
@@ -2772,11 +3546,11 @@
       </c>
       <c r="B85" s="1">
         <f t="shared" ca="1" si="3"/>
-        <v>19781.281942165639</v>
+        <v>167490.50446133781</v>
       </c>
       <c r="C85">
         <f t="shared" ca="1" si="4"/>
-        <v>0.24331694886144473</v>
+        <v>0.94257657622015401</v>
       </c>
     </row>
     <row r="86" spans="1:3" x14ac:dyDescent="0.25">
@@ -2785,11 +3559,11 @@
       </c>
       <c r="B86" s="1">
         <f t="shared" ca="1" si="3"/>
-        <v>114643.2755842959</v>
+        <v>24889.492856405748</v>
       </c>
       <c r="C86">
         <f t="shared" ca="1" si="4"/>
-        <v>0.37937050381732673</v>
+        <v>1.7767435852400149E-2</v>
       </c>
     </row>
     <row r="87" spans="1:3" x14ac:dyDescent="0.25">
@@ -2798,11 +3572,11 @@
       </c>
       <c r="B87" s="1">
         <f t="shared" ca="1" si="3"/>
-        <v>88024.948644192657</v>
+        <v>76591.745901419112</v>
       </c>
       <c r="C87">
         <f t="shared" ca="1" si="4"/>
-        <v>0.4803097139067255</v>
+        <v>0.36873471519970491</v>
       </c>
     </row>
     <row r="88" spans="1:3" x14ac:dyDescent="0.25">
@@ -2811,11 +3585,11 @@
       </c>
       <c r="B88" s="1">
         <f t="shared" ca="1" si="3"/>
-        <v>0</v>
+        <v>46743.923444654502</v>
       </c>
       <c r="C88">
         <f t="shared" ca="1" si="4"/>
-        <v>3.6633093048571874E-2</v>
+        <v>0.3894078490769558</v>
       </c>
     </row>
     <row r="89" spans="1:3" x14ac:dyDescent="0.25">
@@ -2824,11 +3598,11 @@
       </c>
       <c r="B89" s="1">
         <f t="shared" ca="1" si="3"/>
-        <v>92689.622326933168</v>
+        <v>107028.68583882472</v>
       </c>
       <c r="C89">
         <f t="shared" ca="1" si="4"/>
-        <v>0.22777102296959817</v>
+        <v>0.32296403879201485</v>
       </c>
     </row>
     <row r="90" spans="1:3" x14ac:dyDescent="0.25">
@@ -2837,11 +3611,11 @@
       </c>
       <c r="B90" s="1">
         <f t="shared" ca="1" si="3"/>
-        <v>90052.294010636644</v>
+        <v>26752.48346504011</v>
       </c>
       <c r="C90">
         <f t="shared" ca="1" si="4"/>
-        <v>0.50052155714779678</v>
+        <v>5.6917539056116295E-2</v>
       </c>
     </row>
     <row r="91" spans="1:3" x14ac:dyDescent="0.25">
@@ -2850,11 +3624,11 @@
       </c>
       <c r="B91" s="1">
         <f t="shared" ca="1" si="3"/>
-        <v>30030.993526018698</v>
+        <v>0</v>
       </c>
       <c r="C91">
         <f t="shared" ca="1" si="4"/>
-        <v>0.295293800550955</v>
+        <v>7.8610489971375763E-3</v>
       </c>
     </row>
     <row r="92" spans="1:3" x14ac:dyDescent="0.25">
@@ -2863,11 +3637,11 @@
       </c>
       <c r="B92" s="1">
         <f t="shared" ca="1" si="3"/>
-        <v>137568.61708672502</v>
+        <v>86271.820972177287</v>
       </c>
       <c r="C92">
         <f t="shared" ca="1" si="4"/>
-        <v>0.56015899693350324</v>
+        <v>0.19090570561218512</v>
       </c>
     </row>
     <row r="93" spans="1:3" x14ac:dyDescent="0.25">
@@ -2876,11 +3650,11 @@
       </c>
       <c r="B93" s="1">
         <f t="shared" ca="1" si="3"/>
-        <v>96567.915582833593</v>
+        <v>96355.30918251627</v>
       </c>
       <c r="C93">
         <f t="shared" ca="1" si="4"/>
-        <v>0.56521231878075695</v>
+        <v>0.56311936617111102</v>
       </c>
     </row>
     <row r="94" spans="1:3" x14ac:dyDescent="0.25">
@@ -2889,11 +3663,11 @@
       </c>
       <c r="B94" s="1">
         <f t="shared" ca="1" si="3"/>
-        <v>11384.86913921003</v>
+        <v>71819.379326609604</v>
       </c>
       <c r="C94">
         <f t="shared" ca="1" si="4"/>
-        <v>0.20472889833175245</v>
+        <v>0.54177778783085562</v>
       </c>
     </row>
     <row r="95" spans="1:3" x14ac:dyDescent="0.25">
@@ -2902,11 +3676,11 @@
       </c>
       <c r="B95" s="1">
         <f t="shared" ca="1" si="3"/>
-        <v>167476.04099900369</v>
+        <v>91458.909316961537</v>
       </c>
       <c r="C95">
         <f t="shared" ca="1" si="4"/>
-        <v>0.77322832265535191</v>
+        <v>0.22040627785313283</v>
       </c>
     </row>
     <row r="96" spans="1:3" x14ac:dyDescent="0.25">
@@ -2915,11 +3689,11 @@
       </c>
       <c r="B96" s="1">
         <f t="shared" ca="1" si="3"/>
-        <v>106275.58591326384</v>
+        <v>50128.020620399111</v>
       </c>
       <c r="C96">
         <f t="shared" ca="1" si="4"/>
-        <v>0.65795548020823102</v>
+        <v>0.15943092427542815</v>
       </c>
     </row>
     <row r="97" spans="1:3" x14ac:dyDescent="0.25">
@@ -2928,11 +3702,11 @@
       </c>
       <c r="B97" s="1">
         <f t="shared" ca="1" si="3"/>
-        <v>96582.296513546884</v>
+        <v>0</v>
       </c>
       <c r="C97">
         <f t="shared" ca="1" si="4"/>
-        <v>0.68647440175229113</v>
+        <v>6.8818382681326007E-3</v>
       </c>
     </row>
     <row r="98" spans="1:3" x14ac:dyDescent="0.25">
@@ -2941,11 +3715,11 @@
       </c>
       <c r="B98" s="1">
         <f t="shared" ref="B98:B100" ca="1" si="5">IF(NORMINV(C98,(VLOOKUP(A98,$F$2:$H$4,2, FALSE)),VLOOKUP(A98,$F$2:$H$4,3, FALSE))&lt;=0,0,NORMINV(C98,(VLOOKUP(A98,$F$2:$H$4,2, FALSE)),VLOOKUP(A98,$F$2:$H$4,3, FALSE)))</f>
-        <v>160732.21973701796</v>
+        <v>139722.00007805697</v>
       </c>
       <c r="C98">
         <f t="shared" ca="1" si="4"/>
-        <v>0.73060520542109109</v>
+        <v>0.57708431458113196</v>
       </c>
     </row>
     <row r="99" spans="1:3" x14ac:dyDescent="0.25">
@@ -2954,11 +3728,11 @@
       </c>
       <c r="B99" s="1">
         <f t="shared" ca="1" si="5"/>
-        <v>85155.010742846629</v>
+        <v>117977.22257124248</v>
       </c>
       <c r="C99">
         <f t="shared" ca="1" si="4"/>
-        <v>0.451796120272417</v>
+        <v>0.75785850380110475</v>
       </c>
     </row>
     <row r="100" spans="1:3" x14ac:dyDescent="0.25">
@@ -2967,16 +3741,17 @@
       </c>
       <c r="B100" s="1">
         <f t="shared" ca="1" si="5"/>
-        <v>77244.811421156424</v>
+        <v>228671.77123289983</v>
       </c>
       <c r="C100">
         <f t="shared" ca="1" si="4"/>
-        <v>0.57471128347331946</v>
+        <v>0.9940992904811834</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
 
@@ -2985,14 +3760,14 @@
   <dimension ref="A1:I103"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A18" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="I20" sqref="I20"/>
+      <pane ySplit="1" topLeftCell="A19" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="I22" sqref="I22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="12.7109375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="11.140625" style="5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.140625" style="3" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="9.140625" customWidth="1"/>
     <col min="6" max="7" width="12.7109375" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="10.140625" bestFit="1" customWidth="1"/>
@@ -3002,13 +3777,13 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A1" s="3" t="s">
+      <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="4" t="s">
+      <c r="B1" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" s="4" t="s">
         <v>8</v>
       </c>
       <c r="F1" s="2" t="s">
@@ -3025,13 +3800,13 @@
       <c r="A2" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="5">
+      <c r="B2" s="3">
         <f t="shared" ref="B2:B65" ca="1" si="0">IF(NORMINV(C2,(VLOOKUP(A2,$F$2:$H$4,2, FALSE)),VLOOKUP(A2,$F$2:$H$4,3, FALSE))&lt;=0,0,NORMINV(C2,(VLOOKUP(A2,$F$2:$H$4,2, FALSE)),VLOOKUP(A2,$F$2:$H$4,3, FALSE)))</f>
-        <v>190662.24716849695</v>
+        <v>117451.10316796124</v>
       </c>
       <c r="C2">
         <f ca="1">RAND()</f>
-        <v>0.88748190716759379</v>
+        <v>0.40091558367857338</v>
       </c>
       <c r="F2" t="s">
         <v>1</v>
@@ -3047,13 +3822,13 @@
       <c r="A3" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="5">
-        <f t="shared" ca="1" si="0"/>
-        <v>63247.059186030354</v>
+      <c r="B3" s="3">
+        <f t="shared" ca="1" si="0"/>
+        <v>110276.98288144985</v>
       </c>
       <c r="C3">
         <f t="shared" ref="C3:C66" ca="1" si="1">RAND()</f>
-        <v>0.25180403059538292</v>
+        <v>0.69389612806850998</v>
       </c>
       <c r="F3" t="s">
         <v>2</v>
@@ -3069,13 +3844,13 @@
       <c r="A4" t="s">
         <v>3</v>
       </c>
-      <c r="B4" s="5">
-        <f t="shared" ca="1" si="0"/>
-        <v>90623.720464182668</v>
+      <c r="B4" s="3">
+        <f t="shared" ca="1" si="0"/>
+        <v>15682.454835622011</v>
       </c>
       <c r="C4">
         <f t="shared" ca="1" si="1"/>
-        <v>0.6958404870183833</v>
+        <v>0.16198047436205254</v>
       </c>
       <c r="F4" t="s">
         <v>3</v>
@@ -3091,208 +3866,208 @@
       <c r="A5" t="s">
         <v>1</v>
       </c>
-      <c r="B5" s="5">
-        <f t="shared" ca="1" si="0"/>
-        <v>42553.184638763691</v>
+      <c r="B5" s="3">
+        <f t="shared" ca="1" si="0"/>
+        <v>96550.65043315904</v>
       </c>
       <c r="C5">
         <f t="shared" ca="1" si="1"/>
-        <v>4.0151014875800306E-2</v>
+        <v>0.251751888120467</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>2</v>
       </c>
-      <c r="B6" s="5">
-        <f t="shared" ca="1" si="0"/>
-        <v>161483.24914861401</v>
+      <c r="B6" s="3">
+        <f t="shared" ca="1" si="0"/>
+        <v>74221.810794267454</v>
       </c>
       <c r="C6">
         <f t="shared" ca="1" si="1"/>
-        <v>0.96303781953800283</v>
+        <v>0.34662267175254868</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>3</v>
       </c>
-      <c r="B7" s="5">
-        <f t="shared" ca="1" si="0"/>
-        <v>80529.85788304187</v>
+      <c r="B7" s="3">
+        <f t="shared" ca="1" si="0"/>
+        <v>65451.794840168513</v>
       </c>
       <c r="C7">
         <f t="shared" ca="1" si="1"/>
-        <v>0.6219465558743249</v>
+        <v>0.50360475222301537</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>1</v>
       </c>
-      <c r="B8" s="5">
-        <f t="shared" ca="1" si="0"/>
-        <v>110750.70575188527</v>
+      <c r="B8" s="3">
+        <f t="shared" ca="1" si="0"/>
+        <v>178200.96255120533</v>
       </c>
       <c r="C8">
         <f t="shared" ca="1" si="1"/>
-        <v>0.35012393662075703</v>
+        <v>0.83248186282494885</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>2</v>
       </c>
-      <c r="B9" s="5">
-        <f t="shared" ca="1" si="0"/>
-        <v>104849.12365482612</v>
+      <c r="B9" s="3">
+        <f t="shared" ca="1" si="0"/>
+        <v>79417.227813416393</v>
       </c>
       <c r="C9">
         <f t="shared" ca="1" si="1"/>
-        <v>0.64476617412956994</v>
+        <v>0.39567063451881379</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>3</v>
       </c>
-      <c r="B10" s="5">
-        <f t="shared" ca="1" si="0"/>
-        <v>24396.254634771431</v>
+      <c r="B10" s="3">
+        <f t="shared" ca="1" si="0"/>
+        <v>64551.354660580611</v>
       </c>
       <c r="C10">
         <f t="shared" ca="1" si="1"/>
-        <v>0.20837432525766186</v>
+        <v>0.49642037613848511</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>1</v>
       </c>
-      <c r="B11" s="5">
-        <f t="shared" ca="1" si="0"/>
-        <v>68868.36369583878</v>
+      <c r="B11" s="3">
+        <f t="shared" ca="1" si="0"/>
+        <v>58805.204855040429</v>
       </c>
       <c r="C11">
         <f t="shared" ca="1" si="1"/>
-        <v>0.11073422334931415</v>
+        <v>7.7238304010771808E-2</v>
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>2</v>
       </c>
-      <c r="B12" s="5">
-        <f t="shared" ca="1" si="0"/>
-        <v>91622.3213397363</v>
+      <c r="B12" s="3">
+        <f t="shared" ca="1" si="0"/>
+        <v>74975.44063903467</v>
       </c>
       <c r="C12">
         <f t="shared" ca="1" si="1"/>
-        <v>0.51617587948576504</v>
+        <v>0.35360194653653299</v>
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>3</v>
       </c>
-      <c r="B13" s="5">
-        <f t="shared" ca="1" si="0"/>
-        <v>38019.438001391682</v>
+      <c r="B13" s="3">
+        <f t="shared" ca="1" si="0"/>
+        <v>152072.12183738139</v>
       </c>
       <c r="C13">
         <f t="shared" ca="1" si="1"/>
-        <v>0.29473258173988159</v>
+        <v>0.95919697246536606</v>
       </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>1</v>
       </c>
-      <c r="B14" s="5">
-        <f t="shared" ca="1" si="0"/>
-        <v>116063.27004589475</v>
+      <c r="B14" s="3">
+        <f t="shared" ca="1" si="0"/>
+        <v>122818.82936651088</v>
       </c>
       <c r="C14">
         <f t="shared" ca="1" si="1"/>
-        <v>0.39022425407335815</v>
+        <v>0.44289892584850243</v>
       </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>2</v>
       </c>
-      <c r="B15" s="5">
-        <f t="shared" ca="1" si="0"/>
-        <v>36822.389060271962</v>
+      <c r="B15" s="3">
+        <f t="shared" ca="1" si="0"/>
+        <v>135292.95657202508</v>
       </c>
       <c r="C15">
         <f t="shared" ca="1" si="1"/>
-        <v>9.1851379161329127E-2</v>
+        <v>0.87125086017874187</v>
       </c>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>3</v>
       </c>
-      <c r="B16" s="5">
-        <f t="shared" ca="1" si="0"/>
-        <v>76192.266309070925</v>
+      <c r="B16" s="3">
+        <f t="shared" ca="1" si="0"/>
+        <v>25710.183380502051</v>
       </c>
       <c r="C16">
         <f t="shared" ca="1" si="1"/>
-        <v>0.58856117023544219</v>
+        <v>0.21599340780651755</v>
       </c>
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>1</v>
       </c>
-      <c r="B17" s="5">
-        <f t="shared" ca="1" si="0"/>
-        <v>156730.13042227639</v>
+      <c r="B17" s="3">
+        <f t="shared" ca="1" si="0"/>
+        <v>190079.83007858784</v>
       </c>
       <c r="C17">
         <f t="shared" ca="1" si="1"/>
-        <v>0.70353766023567232</v>
+        <v>0.88524007059288135</v>
       </c>
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>2</v>
       </c>
-      <c r="B18" s="5">
-        <f t="shared" ca="1" si="0"/>
-        <v>83303.275932478733</v>
+      <c r="B18" s="3">
+        <f t="shared" ca="1" si="0"/>
+        <v>95061.583386231039</v>
       </c>
       <c r="C18">
         <f t="shared" ca="1" si="1"/>
-        <v>0.4335205415477974</v>
+        <v>0.55034759158075486</v>
       </c>
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>3</v>
       </c>
-      <c r="B19" s="5">
-        <f t="shared" ca="1" si="0"/>
-        <v>106756.54720123162</v>
+      <c r="B19" s="3">
+        <f t="shared" ca="1" si="0"/>
+        <v>37138.526517194987</v>
       </c>
       <c r="C19">
         <f t="shared" ca="1" si="1"/>
-        <v>0.79817800718309873</v>
+        <v>0.28868532871157515</v>
       </c>
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>1</v>
       </c>
-      <c r="B20" s="5">
-        <f t="shared" ca="1" si="0"/>
-        <v>128396.01196571601</v>
+      <c r="B20" s="3">
+        <f t="shared" ca="1" si="0"/>
+        <v>89154.474701894535</v>
       </c>
       <c r="C20">
         <f t="shared" ca="1" si="1"/>
-        <v>0.48720422186772483</v>
+        <v>0.20698978672737223</v>
       </c>
       <c r="I20" t="e" cm="1" vm="1">
         <f t="array" aca="1" ref="I20" ca="1">_xlfn._xlws.PY(0,1,A1:B103)</f>
@@ -3303,13 +4078,13 @@
       <c r="A21" t="s">
         <v>2</v>
       </c>
-      <c r="B21" s="5">
-        <f t="shared" ca="1" si="0"/>
-        <v>70370.336115144106</v>
+      <c r="B21" s="3">
+        <f t="shared" ca="1" si="0"/>
+        <v>75266.647092473737</v>
       </c>
       <c r="C21">
         <f t="shared" ca="1" si="1"/>
-        <v>0.31180461087347955</v>
+        <v>0.35631216784473618</v>
       </c>
       <c r="I21" cm="1" vm="2">
         <f t="array" aca="1" ref="I21" ca="1">_xlfn._xlws.PY(1,1)</f>
@@ -3320,13 +4095,13 @@
       <c r="A22" t="s">
         <v>3</v>
       </c>
-      <c r="B22" s="5">
-        <f t="shared" ca="1" si="0"/>
-        <v>64214.830633419442</v>
+      <c r="B22" s="3">
+        <f t="shared" ca="1" si="0"/>
+        <v>20979.160824550192</v>
       </c>
       <c r="C22">
         <f t="shared" ca="1" si="1"/>
-        <v>0.49373551231561585</v>
+        <v>0.18931678384342632</v>
       </c>
       <c r="I22" t="e" cm="1" vm="3">
         <f t="array" aca="1" ref="I22" ca="1">_xlfn._xlws.PY(2,1)</f>
@@ -3337,1053 +4112,1053 @@
       <c r="A23" t="s">
         <v>1</v>
       </c>
-      <c r="B23" s="5">
-        <f t="shared" ca="1" si="0"/>
-        <v>190413.7698639665</v>
+      <c r="B23" s="3">
+        <f t="shared" ca="1" si="0"/>
+        <v>165061.01504035882</v>
       </c>
       <c r="C23">
         <f t="shared" ca="1" si="1"/>
-        <v>0.88652932569745779</v>
+        <v>0.75841722870988948</v>
       </c>
     </row>
     <row r="24" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>2</v>
       </c>
-      <c r="B24" s="5">
-        <f t="shared" ca="1" si="0"/>
-        <v>51326.02279279365</v>
+      <c r="B24" s="3">
+        <f t="shared" ca="1" si="0"/>
+        <v>90275.176739791947</v>
       </c>
       <c r="C24">
         <f t="shared" ca="1" si="1"/>
-        <v>0.16680965492513256</v>
+        <v>0.50274446925449268</v>
       </c>
     </row>
     <row r="25" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>3</v>
       </c>
-      <c r="B25" s="5">
-        <f t="shared" ca="1" si="0"/>
-        <v>29167.783773062656</v>
+      <c r="B25" s="3">
+        <f t="shared" ca="1" si="0"/>
+        <v>77045.611833390998</v>
       </c>
       <c r="C25">
         <f t="shared" ca="1" si="1"/>
-        <v>0.23679679373078977</v>
+        <v>0.59518843103314212</v>
       </c>
     </row>
     <row r="26" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>1</v>
       </c>
-      <c r="B26" s="5">
-        <f t="shared" ca="1" si="0"/>
-        <v>119804.65576016906</v>
+      <c r="B26" s="3">
+        <f t="shared" ca="1" si="0"/>
+        <v>169912.15236853153</v>
       </c>
       <c r="C26">
         <f t="shared" ca="1" si="1"/>
-        <v>0.41921313241155767</v>
+        <v>0.78763526947824003</v>
       </c>
     </row>
     <row r="27" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>2</v>
       </c>
-      <c r="B27" s="5">
-        <f t="shared" ca="1" si="0"/>
-        <v>116155.00486478358</v>
+      <c r="B27" s="3">
+        <f t="shared" ca="1" si="0"/>
+        <v>44627.276170631412</v>
       </c>
       <c r="C27">
         <f t="shared" ca="1" si="1"/>
-        <v>0.74340386833448335</v>
+        <v>0.12833057063333331</v>
       </c>
     </row>
     <row r="28" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>3</v>
       </c>
-      <c r="B28" s="5">
-        <f t="shared" ca="1" si="0"/>
-        <v>52187.328887817101</v>
+      <c r="B28" s="3">
+        <f t="shared" ca="1" si="0"/>
+        <v>71563.236053935761</v>
       </c>
       <c r="C28">
         <f t="shared" ca="1" si="1"/>
-        <v>0.39887758016692854</v>
+        <v>0.55221705061509652</v>
       </c>
     </row>
     <row r="29" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>1</v>
       </c>
-      <c r="B29" s="5">
-        <f t="shared" ca="1" si="0"/>
-        <v>131417.61969013826</v>
+      <c r="B29" s="3">
+        <f t="shared" ca="1" si="0"/>
+        <v>167194.41386812332</v>
       </c>
       <c r="C29">
         <f t="shared" ca="1" si="1"/>
-        <v>0.51130945341867595</v>
+        <v>0.77152796604456819</v>
       </c>
     </row>
     <row r="30" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>2</v>
       </c>
-      <c r="B30" s="5">
-        <f t="shared" ca="1" si="0"/>
-        <v>47440.630448995922</v>
+      <c r="B30" s="3">
+        <f t="shared" ca="1" si="0"/>
+        <v>105423.14061384511</v>
       </c>
       <c r="C30">
         <f t="shared" ca="1" si="1"/>
-        <v>0.14366791980418814</v>
+        <v>0.65009557631713932</v>
       </c>
     </row>
     <row r="31" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>3</v>
       </c>
-      <c r="B31" s="5">
-        <f t="shared" ca="1" si="0"/>
-        <v>119520.84840726526</v>
+      <c r="B31" s="3">
+        <f t="shared" ca="1" si="0"/>
+        <v>122094.32700114672</v>
       </c>
       <c r="C31">
         <f t="shared" ca="1" si="1"/>
-        <v>0.86223524465228418</v>
+        <v>0.87324940790688499</v>
       </c>
     </row>
     <row r="32" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>1</v>
       </c>
-      <c r="B32" s="5">
-        <f t="shared" ca="1" si="0"/>
-        <v>179165.23679368515</v>
+      <c r="B32" s="3">
+        <f t="shared" ca="1" si="0"/>
+        <v>91276.799533287602</v>
       </c>
       <c r="C32">
         <f t="shared" ca="1" si="1"/>
-        <v>0.8372712600104899</v>
+        <v>0.21932822185605405</v>
       </c>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>2</v>
       </c>
-      <c r="B33" s="5">
-        <f t="shared" ca="1" si="0"/>
-        <v>79256.144928772614</v>
+      <c r="B33" s="3">
+        <f t="shared" ca="1" si="0"/>
+        <v>106941.26926237864</v>
       </c>
       <c r="C33">
         <f t="shared" ca="1" si="1"/>
-        <v>0.39412015038979675</v>
+        <v>0.66404632390099327</v>
       </c>
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>3</v>
       </c>
-      <c r="B34" s="5">
-        <f t="shared" ca="1" si="0"/>
-        <v>88202.253007526786</v>
+      <c r="B34" s="3">
+        <f t="shared" ca="1" si="0"/>
+        <v>55632.358152364497</v>
       </c>
       <c r="C34">
         <f t="shared" ca="1" si="1"/>
-        <v>0.67869226880848399</v>
+        <v>0.42569199921487355</v>
       </c>
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>1</v>
       </c>
-      <c r="B35" s="5">
-        <f t="shared" ca="1" si="0"/>
-        <v>236799.43792954256</v>
+      <c r="B35" s="3">
+        <f t="shared" ca="1" si="0"/>
+        <v>138677.93100356136</v>
       </c>
       <c r="C35">
         <f t="shared" ca="1" si="1"/>
-        <v>0.98365983494585918</v>
+        <v>0.56889382261692134</v>
       </c>
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>2</v>
       </c>
-      <c r="B36" s="5">
-        <f t="shared" ca="1" si="0"/>
-        <v>89937.407880094936</v>
+      <c r="B36" s="3">
+        <f t="shared" ca="1" si="0"/>
+        <v>54198.156869136044</v>
       </c>
       <c r="C36">
         <f t="shared" ca="1" si="1"/>
-        <v>0.49937573417851167</v>
+        <v>0.18538122835019144</v>
       </c>
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>3</v>
       </c>
-      <c r="B37" s="5">
-        <f t="shared" ca="1" si="0"/>
-        <v>46790.934916701633</v>
+      <c r="B37" s="3">
+        <f t="shared" ca="1" si="0"/>
+        <v>99699.726235346199</v>
       </c>
       <c r="C37">
         <f t="shared" ca="1" si="1"/>
-        <v>0.35786131439848279</v>
+        <v>0.75615717868984611</v>
       </c>
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>1</v>
       </c>
-      <c r="B38" s="5">
-        <f t="shared" ca="1" si="0"/>
-        <v>160462.40539055603</v>
+      <c r="B38" s="3">
+        <f t="shared" ca="1" si="0"/>
+        <v>78107.325840722187</v>
       </c>
       <c r="C38">
         <f t="shared" ca="1" si="1"/>
-        <v>0.72882000138975223</v>
+        <v>0.14966913635299606</v>
       </c>
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>2</v>
       </c>
-      <c r="B39" s="5">
-        <f t="shared" ca="1" si="0"/>
-        <v>58353.645339869967</v>
+      <c r="B39" s="3">
+        <f t="shared" ca="1" si="0"/>
+        <v>77264.159556170562</v>
       </c>
       <c r="C39">
         <f t="shared" ca="1" si="1"/>
-        <v>0.21442564569349476</v>
+        <v>0.37509228182688237</v>
       </c>
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>3</v>
       </c>
-      <c r="B40" s="5">
-        <f t="shared" ca="1" si="0"/>
-        <v>46217.641431158176</v>
+      <c r="B40" s="3">
+        <f t="shared" ca="1" si="0"/>
+        <v>133100.54625412598</v>
       </c>
       <c r="C40">
         <f t="shared" ca="1" si="1"/>
-        <v>0.35358960857069455</v>
+        <v>0.91340278134879094</v>
       </c>
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>1</v>
       </c>
-      <c r="B41" s="5">
-        <f t="shared" ca="1" si="0"/>
-        <v>140677.35399520528</v>
+      <c r="B41" s="3">
+        <f t="shared" ca="1" si="0"/>
+        <v>89601.196847057814</v>
       </c>
       <c r="C41">
         <f t="shared" ca="1" si="1"/>
-        <v>0.58454986428780353</v>
+        <v>0.20955218100887429</v>
       </c>
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>2</v>
       </c>
-      <c r="B42" s="5">
-        <f t="shared" ca="1" si="0"/>
-        <v>101143.48532728887</v>
+      <c r="B42" s="3">
+        <f t="shared" ca="1" si="0"/>
+        <v>26123.517913277276</v>
       </c>
       <c r="C42">
         <f t="shared" ca="1" si="1"/>
-        <v>0.6097191559154671</v>
+        <v>5.5142656440955617E-2</v>
       </c>
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>3</v>
       </c>
-      <c r="B43" s="5">
-        <f t="shared" ca="1" si="0"/>
-        <v>147772.22840189512</v>
+      <c r="B43" s="3">
+        <f t="shared" ca="1" si="0"/>
+        <v>87986.48742086628</v>
       </c>
       <c r="C43">
         <f t="shared" ca="1" si="1"/>
-        <v>0.95108282408164968</v>
+        <v>0.6771448930526921</v>
       </c>
     </row>
     <row r="44" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>1</v>
       </c>
-      <c r="B44" s="5">
-        <f t="shared" ca="1" si="0"/>
-        <v>124262.67955469964</v>
+      <c r="B44" s="3">
+        <f t="shared" ca="1" si="0"/>
+        <v>197733.99498437933</v>
       </c>
       <c r="C44">
         <f t="shared" ca="1" si="1"/>
-        <v>0.45432306392806088</v>
+        <v>0.91224021767996843</v>
       </c>
     </row>
     <row r="45" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>2</v>
       </c>
-      <c r="B45" s="5">
-        <f t="shared" ca="1" si="0"/>
-        <v>29791.796771298999</v>
+      <c r="B45" s="3">
+        <f t="shared" ca="1" si="0"/>
+        <v>122191.29107136944</v>
       </c>
       <c r="C45">
         <f t="shared" ca="1" si="1"/>
-        <v>6.6135679671587178E-2</v>
+        <v>0.78952733459667379</v>
       </c>
     </row>
     <row r="46" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>3</v>
       </c>
-      <c r="B46" s="5">
-        <f t="shared" ca="1" si="0"/>
-        <v>50457.546671388198</v>
+      <c r="B46" s="3">
+        <f t="shared" ca="1" si="0"/>
+        <v>93990.858445130682</v>
       </c>
       <c r="C46">
         <f t="shared" ca="1" si="1"/>
-        <v>0.38558337848673208</v>
+        <v>0.71898104085393222</v>
       </c>
     </row>
     <row r="47" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>1</v>
       </c>
-      <c r="B47" s="5">
-        <f t="shared" ca="1" si="0"/>
-        <v>154918.85825012912</v>
+      <c r="B47" s="3">
+        <f t="shared" ca="1" si="0"/>
+        <v>100156.9196487828</v>
       </c>
       <c r="C47">
         <f t="shared" ca="1" si="1"/>
-        <v>0.69089088572935575</v>
+        <v>0.27529989103201491</v>
       </c>
     </row>
     <row r="48" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
         <v>2</v>
       </c>
-      <c r="B48" s="5">
-        <f t="shared" ca="1" si="0"/>
-        <v>122742.61077782104</v>
+      <c r="B48" s="3">
+        <f t="shared" ca="1" si="0"/>
+        <v>97017.231324752589</v>
       </c>
       <c r="C48">
         <f t="shared" ca="1" si="1"/>
-        <v>0.79348275552681147</v>
+        <v>0.5696294228989085</v>
       </c>
     </row>
     <row r="49" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
         <v>3</v>
       </c>
-      <c r="B49" s="5">
-        <f t="shared" ca="1" si="0"/>
-        <v>183364.99841153593</v>
+      <c r="B49" s="3">
+        <f t="shared" ca="1" si="0"/>
+        <v>123334.72782365367</v>
       </c>
       <c r="C49">
         <f t="shared" ca="1" si="1"/>
-        <v>0.9910407983777958</v>
+        <v>0.87833312903819849</v>
       </c>
     </row>
     <row r="50" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
         <v>1</v>
       </c>
-      <c r="B50" s="5">
-        <f t="shared" ca="1" si="0"/>
-        <v>158707.42080465044</v>
+      <c r="B50" s="3">
+        <f t="shared" ca="1" si="0"/>
+        <v>162029.09994330132</v>
       </c>
       <c r="C50">
         <f t="shared" ca="1" si="1"/>
-        <v>0.71706631370273721</v>
+        <v>0.73910285093601258</v>
       </c>
     </row>
     <row r="51" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
         <v>2</v>
       </c>
-      <c r="B51" s="5">
-        <f t="shared" ca="1" si="0"/>
-        <v>83260.544966147427</v>
+      <c r="B51" s="3">
+        <f t="shared" ca="1" si="0"/>
+        <v>168104.66811471595</v>
       </c>
       <c r="C51">
         <f t="shared" ca="1" si="1"/>
-        <v>0.43310033047789787</v>
+        <v>0.97456748476358168</v>
       </c>
     </row>
     <row r="52" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
         <v>3</v>
       </c>
-      <c r="B52" s="5">
-        <f t="shared" ca="1" si="0"/>
-        <v>140817.18992897606</v>
+      <c r="B52" s="3">
+        <f t="shared" ca="1" si="0"/>
+        <v>127036.37037052721</v>
       </c>
       <c r="C52">
         <f t="shared" ca="1" si="1"/>
-        <v>0.93528377892288428</v>
+        <v>0.89264676701078793</v>
       </c>
     </row>
     <row r="53" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
         <v>1</v>
       </c>
-      <c r="B53" s="5">
-        <f t="shared" ca="1" si="0"/>
-        <v>11735.682469521853</v>
+      <c r="B53" s="3">
+        <f t="shared" ca="1" si="0"/>
+        <v>119398.86791914943</v>
       </c>
       <c r="C53">
         <f t="shared" ca="1" si="1"/>
-        <v>9.0080674718141518E-3</v>
+        <v>0.41604468520316618</v>
       </c>
     </row>
     <row r="54" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
         <v>2</v>
       </c>
-      <c r="B54" s="5">
-        <f t="shared" ca="1" si="0"/>
-        <v>121031.31401816651</v>
+      <c r="B54" s="3">
+        <f t="shared" ca="1" si="0"/>
+        <v>117916.6946084885</v>
       </c>
       <c r="C54">
         <f t="shared" ca="1" si="1"/>
-        <v>0.78106139427014298</v>
+        <v>0.75738556308681881</v>
       </c>
     </row>
     <row r="55" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
         <v>3</v>
       </c>
-      <c r="B55" s="5">
-        <f t="shared" ca="1" si="0"/>
-        <v>75892.901034060997</v>
+      <c r="B55" s="3">
+        <f t="shared" ca="1" si="0"/>
+        <v>57655.497617287649</v>
       </c>
       <c r="C55">
         <f t="shared" ca="1" si="1"/>
-        <v>0.58623013192978468</v>
+        <v>0.44160940376599223</v>
       </c>
     </row>
     <row r="56" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
         <v>1</v>
       </c>
-      <c r="B56" s="5">
-        <f t="shared" ca="1" si="0"/>
-        <v>160056.3051693723</v>
+      <c r="B56" s="3">
+        <f t="shared" ca="1" si="0"/>
+        <v>183785.1486590011</v>
       </c>
       <c r="C56">
         <f t="shared" ca="1" si="1"/>
-        <v>0.72612200078378164</v>
+        <v>0.85896994133896143</v>
       </c>
     </row>
     <row r="57" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
         <v>2</v>
       </c>
-      <c r="B57" s="5">
-        <f t="shared" ca="1" si="0"/>
-        <v>176227.90979282197</v>
+      <c r="B57" s="3">
+        <f t="shared" ca="1" si="0"/>
+        <v>186475.99613337626</v>
       </c>
       <c r="C57">
         <f t="shared" ca="1" si="1"/>
-        <v>0.98444636280273901</v>
+        <v>0.99206518115012288</v>
       </c>
     </row>
     <row r="58" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
         <v>3</v>
       </c>
-      <c r="B58" s="5">
-        <f t="shared" ca="1" si="0"/>
-        <v>63745.890845707392</v>
+      <c r="B58" s="3">
+        <f t="shared" ca="1" si="0"/>
+        <v>0</v>
       </c>
       <c r="C58">
         <f t="shared" ca="1" si="1"/>
-        <v>0.48999470577490944</v>
+        <v>3.5605893209956774E-2</v>
       </c>
     </row>
     <row r="59" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
         <v>1</v>
       </c>
-      <c r="B59" s="5">
-        <f t="shared" ca="1" si="0"/>
-        <v>86728.482735550817</v>
+      <c r="B59" s="3">
+        <f t="shared" ca="1" si="0"/>
+        <v>72917.753614776753</v>
       </c>
       <c r="C59">
         <f t="shared" ca="1" si="1"/>
-        <v>0.19340131577021347</v>
+        <v>0.12680082053430464</v>
       </c>
     </row>
     <row r="60" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
         <v>2</v>
       </c>
-      <c r="B60" s="5">
-        <f t="shared" ca="1" si="0"/>
-        <v>120968.98090017347</v>
+      <c r="B60" s="3">
+        <f t="shared" ca="1" si="0"/>
+        <v>0</v>
       </c>
       <c r="C60">
         <f t="shared" ca="1" si="1"/>
-        <v>0.78060098548060786</v>
+        <v>9.7037316056737266E-3</v>
       </c>
     </row>
     <row r="61" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
         <v>3</v>
       </c>
-      <c r="B61" s="5">
-        <f t="shared" ca="1" si="0"/>
-        <v>82106.385318584813</v>
+      <c r="B61" s="3">
+        <f t="shared" ca="1" si="0"/>
+        <v>29952.613104339718</v>
       </c>
       <c r="C61">
         <f t="shared" ca="1" si="1"/>
-        <v>0.6338726062323049</v>
+        <v>0.24166781551850003</v>
       </c>
     </row>
     <row r="62" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
         <v>1</v>
       </c>
-      <c r="B62" s="5">
-        <f t="shared" ca="1" si="0"/>
-        <v>147608.89952592424</v>
+      <c r="B62" s="3">
+        <f t="shared" ca="1" si="0"/>
+        <v>131768.45374559675</v>
       </c>
       <c r="C62">
         <f t="shared" ca="1" si="1"/>
-        <v>0.63764760902565143</v>
+        <v>0.51410727803938405</v>
       </c>
     </row>
     <row r="63" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
         <v>2</v>
       </c>
-      <c r="B63" s="5">
-        <f t="shared" ca="1" si="0"/>
-        <v>58676.887724085027</v>
+      <c r="B63" s="3">
+        <f t="shared" ca="1" si="0"/>
+        <v>115828.30238755413</v>
       </c>
       <c r="C63">
         <f t="shared" ca="1" si="1"/>
-        <v>0.21679071138203765</v>
+        <v>0.74076561808084962</v>
       </c>
     </row>
     <row r="64" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
         <v>3</v>
       </c>
-      <c r="B64" s="5">
-        <f t="shared" ca="1" si="0"/>
-        <v>13739.599814649147</v>
+      <c r="B64" s="3">
+        <f t="shared" ca="1" si="0"/>
+        <v>50553.373155514651</v>
       </c>
       <c r="C64">
         <f t="shared" ca="1" si="1"/>
-        <v>0.15263252626637203</v>
+        <v>0.38631650212409152</v>
       </c>
     </row>
     <row r="65" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
         <v>1</v>
       </c>
-      <c r="B65" s="5">
-        <f t="shared" ca="1" si="0"/>
-        <v>10981.818438287533</v>
+      <c r="B65" s="3">
+        <f t="shared" ca="1" si="0"/>
+        <v>130644.50084762948</v>
       </c>
       <c r="C65">
         <f t="shared" ca="1" si="1"/>
-        <v>8.6477806649675193E-3</v>
+        <v>0.50514223035798156</v>
       </c>
     </row>
     <row r="66" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
         <v>2</v>
       </c>
-      <c r="B66" s="5">
+      <c r="B66" s="3">
         <f t="shared" ref="B66:B103" ca="1" si="2">IF(NORMINV(C66,(VLOOKUP(A66,$F$2:$H$4,2, FALSE)),VLOOKUP(A66,$F$2:$H$4,3, FALSE))&lt;=0,0,NORMINV(C66,(VLOOKUP(A66,$F$2:$H$4,2, FALSE)),VLOOKUP(A66,$F$2:$H$4,3, FALSE)))</f>
-        <v>44549.149746074683</v>
+        <v>97550.592864687293</v>
       </c>
       <c r="C66">
         <f t="shared" ca="1" si="1"/>
-        <v>0.12792152829022074</v>
+        <v>0.57486142779990301</v>
       </c>
     </row>
     <row r="67" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
         <v>3</v>
       </c>
-      <c r="B67" s="5">
-        <f t="shared" ca="1" si="2"/>
-        <v>150060.35388414119</v>
+      <c r="B67" s="3">
+        <f t="shared" ca="1" si="2"/>
+        <v>4105.7817170052731</v>
       </c>
       <c r="C67">
         <f t="shared" ref="C67:C103" ca="1" si="3">RAND()</f>
-        <v>0.95554794535795395</v>
+        <v>0.11163395911833118</v>
       </c>
     </row>
     <row r="68" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
         <v>1</v>
       </c>
-      <c r="B68" s="5">
-        <f t="shared" ca="1" si="2"/>
-        <v>195530.61099660079</v>
+      <c r="B68" s="3">
+        <f t="shared" ca="1" si="2"/>
+        <v>154337.28222315983</v>
       </c>
       <c r="C68">
         <f t="shared" ca="1" si="3"/>
-        <v>0.90500559570187256</v>
+        <v>0.68678070282654236</v>
       </c>
     </row>
     <row r="69" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
         <v>2</v>
       </c>
-      <c r="B69" s="5">
-        <f t="shared" ca="1" si="2"/>
-        <v>154875.42291128513</v>
+      <c r="B69" s="3">
+        <f t="shared" ca="1" si="2"/>
+        <v>116665.0618622523</v>
       </c>
       <c r="C69">
         <f t="shared" ca="1" si="3"/>
-        <v>0.94758607439795772</v>
+        <v>0.74749464599244642</v>
       </c>
     </row>
     <row r="70" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
         <v>3</v>
       </c>
-      <c r="B70" s="5">
-        <f t="shared" ca="1" si="2"/>
-        <v>16414.510624735296</v>
+      <c r="B70" s="3">
+        <f t="shared" ca="1" si="2"/>
+        <v>89770.922172606195</v>
       </c>
       <c r="C70">
         <f t="shared" ca="1" si="3"/>
-        <v>0.16559747311338546</v>
+        <v>0.68984761079110646</v>
       </c>
     </row>
     <row r="71" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
         <v>1</v>
       </c>
-      <c r="B71" s="5">
-        <f t="shared" ca="1" si="2"/>
-        <v>229155.07568395339</v>
+      <c r="B71" s="3">
+        <f t="shared" ca="1" si="2"/>
+        <v>147416.8927038195</v>
       </c>
       <c r="C71">
         <f t="shared" ca="1" si="3"/>
-        <v>0.9763219542141921</v>
+        <v>0.63620676579444657</v>
       </c>
     </row>
     <row r="72" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
         <v>2</v>
       </c>
-      <c r="B72" s="5">
-        <f t="shared" ca="1" si="2"/>
-        <v>98318.661375478376</v>
+      <c r="B72" s="3">
+        <f t="shared" ca="1" si="2"/>
+        <v>86268.891529170869</v>
       </c>
       <c r="C72">
         <f t="shared" ca="1" si="3"/>
-        <v>0.58237245113402525</v>
+        <v>0.46284146915170632</v>
       </c>
     </row>
     <row r="73" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
         <v>3</v>
       </c>
-      <c r="B73" s="5">
-        <f t="shared" ca="1" si="2"/>
-        <v>57782.709180660175</v>
+      <c r="B73" s="3">
+        <f t="shared" ca="1" si="2"/>
+        <v>46999.581604690582</v>
       </c>
       <c r="C73">
         <f t="shared" ca="1" si="3"/>
-        <v>0.44261370043040027</v>
+        <v>0.35942043793785294</v>
       </c>
     </row>
     <row r="74" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
         <v>1</v>
       </c>
-      <c r="B74" s="5">
-        <f t="shared" ca="1" si="2"/>
-        <v>221999.36351039924</v>
+      <c r="B74" s="3">
+        <f t="shared" ca="1" si="2"/>
+        <v>75544.116362325556</v>
       </c>
       <c r="C74">
         <f t="shared" ca="1" si="3"/>
-        <v>0.96711494687643562</v>
+        <v>0.13805099873798721</v>
       </c>
     </row>
     <row r="75" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
         <v>2</v>
       </c>
-      <c r="B75" s="5">
-        <f t="shared" ca="1" si="2"/>
-        <v>88250.822817445354</v>
+      <c r="B75" s="3">
+        <f t="shared" ca="1" si="2"/>
+        <v>82414.161450411702</v>
       </c>
       <c r="C75">
         <f t="shared" ca="1" si="3"/>
-        <v>0.48256004012455844</v>
+        <v>0.42479328344862244</v>
       </c>
     </row>
     <row r="76" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
         <v>3</v>
       </c>
-      <c r="B76" s="5">
-        <f t="shared" ca="1" si="2"/>
-        <v>73755.612160384073</v>
+      <c r="B76" s="3">
+        <f t="shared" ca="1" si="2"/>
+        <v>63682.960116263675</v>
       </c>
       <c r="C76">
         <f t="shared" ca="1" si="3"/>
-        <v>0.56950428088697824</v>
+        <v>0.48949275717549623</v>
       </c>
     </row>
     <row r="77" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
         <v>1</v>
       </c>
-      <c r="B77" s="5">
-        <f t="shared" ca="1" si="2"/>
-        <v>202522.06978618578</v>
+      <c r="B77" s="3">
+        <f t="shared" ca="1" si="2"/>
+        <v>81432.489642978617</v>
       </c>
       <c r="C77">
         <f t="shared" ca="1" si="3"/>
-        <v>0.92653226475350925</v>
+        <v>0.16568695747657403</v>
       </c>
     </row>
     <row r="78" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
         <v>2</v>
       </c>
-      <c r="B78" s="5">
-        <f t="shared" ca="1" si="2"/>
-        <v>0</v>
+      <c r="B78" s="3">
+        <f t="shared" ca="1" si="2"/>
+        <v>89627.187497292573</v>
       </c>
       <c r="C78">
         <f t="shared" ca="1" si="3"/>
-        <v>9.8386236098879642E-3</v>
+        <v>0.4962817870826981</v>
       </c>
     </row>
     <row r="79" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
         <v>3</v>
       </c>
-      <c r="B79" s="5">
-        <f t="shared" ca="1" si="2"/>
-        <v>394.34085852124554</v>
+      <c r="B79" s="3">
+        <f t="shared" ca="1" si="2"/>
+        <v>43933.26330527442</v>
       </c>
       <c r="C79">
         <f t="shared" ca="1" si="3"/>
-        <v>9.8158975602714582E-2</v>
+        <v>0.33675533514922729</v>
       </c>
     </row>
     <row r="80" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
         <v>1</v>
       </c>
-      <c r="B80" s="5">
-        <f t="shared" ca="1" si="2"/>
-        <v>153674.28631090181</v>
+      <c r="B80" s="3">
+        <f t="shared" ca="1" si="2"/>
+        <v>95430.198191274612</v>
       </c>
       <c r="C80">
         <f t="shared" ca="1" si="3"/>
-        <v>0.68206665894592355</v>
+        <v>0.24465834719771529</v>
       </c>
     </row>
     <row r="81" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
         <v>2</v>
       </c>
-      <c r="B81" s="5">
-        <f t="shared" ca="1" si="2"/>
-        <v>92660.297123428085</v>
+      <c r="B81" s="3">
+        <f t="shared" ca="1" si="2"/>
+        <v>73521.270222251958</v>
       </c>
       <c r="C81">
         <f t="shared" ca="1" si="3"/>
-        <v>0.52651307797594027</v>
+        <v>0.34018134947662837</v>
       </c>
     </row>
     <row r="82" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
         <v>3</v>
       </c>
-      <c r="B82" s="5">
-        <f t="shared" ca="1" si="2"/>
-        <v>0</v>
+      <c r="B82" s="3">
+        <f t="shared" ca="1" si="2"/>
+        <v>61334.989871547492</v>
       </c>
       <c r="C82">
         <f t="shared" ca="1" si="3"/>
-        <v>2.5954792524922277E-2</v>
+        <v>0.4707836152542817</v>
       </c>
     </row>
     <row r="83" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
         <v>1</v>
       </c>
-      <c r="B83" s="5">
-        <f t="shared" ca="1" si="2"/>
-        <v>169415.16799846385</v>
+      <c r="B83" s="3">
+        <f t="shared" ca="1" si="2"/>
+        <v>102225.74973285991</v>
       </c>
       <c r="C83">
         <f t="shared" ca="1" si="3"/>
-        <v>0.78474035860385982</v>
+        <v>0.2892814818007482</v>
       </c>
     </row>
     <row r="84" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
         <v>2</v>
       </c>
-      <c r="B84" s="5">
-        <f t="shared" ca="1" si="2"/>
-        <v>86240.69710333008</v>
+      <c r="B84" s="3">
+        <f t="shared" ca="1" si="2"/>
+        <v>108044.46818814203</v>
       </c>
       <c r="C84">
         <f t="shared" ca="1" si="3"/>
-        <v>0.46256150032533727</v>
+        <v>0.67404547891278477</v>
       </c>
     </row>
     <row r="85" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
         <v>3</v>
       </c>
-      <c r="B85" s="5">
-        <f t="shared" ca="1" si="2"/>
-        <v>0</v>
+      <c r="B85" s="3">
+        <f t="shared" ca="1" si="2"/>
+        <v>32849.150374404009</v>
       </c>
       <c r="C85">
         <f t="shared" ca="1" si="3"/>
-        <v>4.964290045930686E-2</v>
+        <v>0.2601065369674499</v>
       </c>
     </row>
     <row r="86" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
         <v>1</v>
       </c>
-      <c r="B86" s="5">
-        <f t="shared" ca="1" si="2"/>
-        <v>116158.41873866825</v>
+      <c r="B86" s="3">
+        <f t="shared" ca="1" si="2"/>
+        <v>77716.547055097006</v>
       </c>
       <c r="C86">
         <f t="shared" ca="1" si="3"/>
-        <v>0.39095469818952544</v>
+        <v>0.14785692645316395</v>
       </c>
     </row>
     <row r="87" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
         <v>2</v>
       </c>
-      <c r="B87" s="5">
-        <f t="shared" ca="1" si="2"/>
-        <v>94592.261516491271</v>
+      <c r="B87" s="3">
+        <f t="shared" ca="1" si="2"/>
+        <v>87170.251947186989</v>
       </c>
       <c r="C87">
         <f t="shared" ca="1" si="3"/>
-        <v>0.54570076658940703</v>
+        <v>0.47180086966019963</v>
       </c>
     </row>
     <row r="88" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
         <v>3</v>
       </c>
-      <c r="B88" s="5">
-        <f t="shared" ca="1" si="2"/>
-        <v>93415.427051117353</v>
+      <c r="B88" s="3">
+        <f t="shared" ca="1" si="2"/>
+        <v>148714.31329779362</v>
       </c>
       <c r="C88">
         <f t="shared" ca="1" si="3"/>
-        <v>0.71508725975428389</v>
+        <v>0.95296282381323338</v>
       </c>
     </row>
     <row r="89" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
         <v>1</v>
       </c>
-      <c r="B89" s="5">
-        <f t="shared" ca="1" si="2"/>
-        <v>59428.759253971104</v>
+      <c r="B89" s="3">
+        <f t="shared" ca="1" si="2"/>
+        <v>133813.19604274351</v>
       </c>
       <c r="C89">
         <f t="shared" ca="1" si="3"/>
-        <v>7.9059695142588371E-2</v>
+        <v>0.53039543539732104</v>
       </c>
     </row>
     <row r="90" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
         <v>2</v>
       </c>
-      <c r="B90" s="5">
-        <f t="shared" ca="1" si="2"/>
-        <v>35189.891550649561</v>
+      <c r="B90" s="3">
+        <f t="shared" ca="1" si="2"/>
+        <v>77440.021992727154</v>
       </c>
       <c r="C90">
         <f t="shared" ca="1" si="3"/>
-        <v>8.5304014557051722E-2</v>
+        <v>0.37676072817730832</v>
       </c>
     </row>
     <row r="91" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
         <v>3</v>
       </c>
-      <c r="B91" s="5">
-        <f t="shared" ca="1" si="2"/>
-        <v>0</v>
+      <c r="B91" s="3">
+        <f t="shared" ca="1" si="2"/>
+        <v>5945.3963444770998</v>
       </c>
       <c r="C91">
         <f t="shared" ca="1" si="3"/>
-        <v>4.1980216144527738E-2</v>
+        <v>0.1187830743025251</v>
       </c>
     </row>
     <row r="92" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
         <v>1</v>
       </c>
-      <c r="B92" s="5">
-        <f t="shared" ca="1" si="2"/>
-        <v>152012.52392884874</v>
+      <c r="B92" s="3">
+        <f t="shared" ca="1" si="2"/>
+        <v>180556.13065633411</v>
       </c>
       <c r="C92">
         <f t="shared" ca="1" si="3"/>
-        <v>0.67012214837022421</v>
+        <v>0.84402112572888843</v>
       </c>
     </row>
     <row r="93" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
         <v>2</v>
       </c>
-      <c r="B93" s="5">
-        <f t="shared" ca="1" si="2"/>
-        <v>78094.680672339586</v>
+      <c r="B93" s="3">
+        <f t="shared" ca="1" si="2"/>
+        <v>53037.604941175385</v>
       </c>
       <c r="C93">
         <f t="shared" ca="1" si="3"/>
-        <v>0.38299164893739468</v>
+        <v>0.17772757102090775</v>
       </c>
     </row>
     <row r="94" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
         <v>3</v>
       </c>
-      <c r="B94" s="5">
-        <f t="shared" ca="1" si="2"/>
-        <v>38819.567158179314</v>
+      <c r="B94" s="3">
+        <f t="shared" ca="1" si="2"/>
+        <v>149684.989819418</v>
       </c>
       <c r="C94">
         <f t="shared" ca="1" si="3"/>
-        <v>0.30027537958097672</v>
+        <v>0.95483882840542811</v>
       </c>
     </row>
     <row r="95" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
         <v>1</v>
       </c>
-      <c r="B95" s="5">
-        <f t="shared" ca="1" si="2"/>
-        <v>152744.14723939082</v>
+      <c r="B95" s="3">
+        <f t="shared" ca="1" si="2"/>
+        <v>146496.50791373142</v>
       </c>
       <c r="C95">
         <f t="shared" ca="1" si="3"/>
-        <v>0.67540327327385064</v>
+        <v>0.62927363238550493</v>
       </c>
     </row>
     <row r="96" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A96" t="s">
         <v>2</v>
       </c>
-      <c r="B96" s="5">
-        <f t="shared" ca="1" si="2"/>
-        <v>76670.510284186588</v>
+      <c r="B96" s="3">
+        <f t="shared" ca="1" si="2"/>
+        <v>1466.5322593004967</v>
       </c>
       <c r="C96">
         <f t="shared" ca="1" si="3"/>
-        <v>0.36947760368210947</v>
+        <v>1.343722082441734E-2</v>
       </c>
     </row>
     <row r="97" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A97" t="s">
         <v>3</v>
       </c>
-      <c r="B97" s="5">
-        <f t="shared" ca="1" si="2"/>
-        <v>167292.77205840035</v>
+      <c r="B97" s="3">
+        <f t="shared" ca="1" si="2"/>
+        <v>139477.81221050376</v>
       </c>
       <c r="C97">
         <f t="shared" ca="1" si="3"/>
-        <v>0.9796147022758197</v>
+        <v>0.93182952286694021</v>
       </c>
     </row>
     <row r="98" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A98" t="s">
         <v>1</v>
       </c>
-      <c r="B98" s="5">
-        <f t="shared" ca="1" si="2"/>
-        <v>88112.883764882659</v>
+      <c r="B98" s="3">
+        <f t="shared" ca="1" si="2"/>
+        <v>189579.121972833</v>
       </c>
       <c r="C98">
         <f t="shared" ca="1" si="3"/>
-        <v>0.20108771855287311</v>
+        <v>0.8832874930170701</v>
       </c>
     </row>
     <row r="99" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A99" t="s">
         <v>2</v>
       </c>
-      <c r="B99" s="5">
-        <f t="shared" ca="1" si="2"/>
-        <v>46222.868486788313</v>
+      <c r="B99" s="3">
+        <f t="shared" ca="1" si="2"/>
+        <v>119276.29578594942</v>
       </c>
       <c r="C99">
         <f t="shared" ca="1" si="3"/>
-        <v>0.13688359152277763</v>
+        <v>0.76788745377000811</v>
       </c>
     </row>
     <row r="100" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A100" t="s">
         <v>3</v>
       </c>
-      <c r="B100" s="5">
-        <f t="shared" ca="1" si="2"/>
-        <v>71883.261252545024</v>
+      <c r="B100" s="3">
+        <f t="shared" ca="1" si="2"/>
+        <v>4241.1880904666032</v>
       </c>
       <c r="C100">
         <f t="shared" ca="1" si="3"/>
-        <v>0.55474749797486833</v>
+        <v>0.11214944057433984</v>
       </c>
     </row>
     <row r="101" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A101" t="s">
         <v>1</v>
       </c>
-      <c r="B101" s="5">
-        <f t="shared" ca="1" si="2"/>
-        <v>134685.32190138748</v>
+      <c r="B101" s="3">
+        <f t="shared" ca="1" si="2"/>
+        <v>166389.68272549642</v>
       </c>
       <c r="C101">
         <f t="shared" ca="1" si="3"/>
-        <v>0.53732882201118548</v>
+        <v>0.76663004525695122</v>
       </c>
     </row>
     <row r="102" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A102" t="s">
         <v>2</v>
       </c>
-      <c r="B102" s="5">
-        <f t="shared" ca="1" si="2"/>
-        <v>51773.777060828914</v>
+      <c r="B102" s="3">
+        <f t="shared" ca="1" si="2"/>
+        <v>99422.816175699394</v>
       </c>
       <c r="C102">
         <f t="shared" ca="1" si="3"/>
-        <v>0.16962313732100698</v>
+        <v>0.59311697947208364</v>
       </c>
     </row>
     <row r="103" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A103" t="s">
         <v>3</v>
       </c>
-      <c r="B103" s="5">
-        <f t="shared" ca="1" si="2"/>
-        <v>113443.47361476079</v>
+      <c r="B103" s="3">
+        <f t="shared" ca="1" si="2"/>
+        <v>33836.671630790552</v>
       </c>
       <c r="C103">
         <f t="shared" ca="1" si="3"/>
-        <v>0.83369484068411648</v>
+        <v>0.2665546819430078</v>
       </c>
     </row>
   </sheetData>
